--- a/results/result_summary_epsilon_new_support.xlsx
+++ b/results/result_summary_epsilon_new_support.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\_Work\Research\00_Workshop\data_valuation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD0AB29-2823-404F-BE17-933712021DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5BFECD-4D68-4184-8C4A-AC8110778F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{FFE2B131-66A4-4E63-8C13-A75AF38B9E2B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{FFE2B131-66A4-4E63-8C13-A75AF38B9E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
     <sheet name="with prices" sheetId="3" r:id="rId2"/>
+    <sheet name="mileage cost" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>lam2</t>
   </si>
@@ -173,11 +174,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056EC552-3B33-4C7A-BFE0-F85E370CBE75}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -602,7 +603,7 @@
   <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="M20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -611,42 +612,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="Q1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="Y1" s="4" t="s">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="Y1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -762,19 +763,19 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N3" s="4">
         <v>1125</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>3375</v>
       </c>
       <c r="Q3">
@@ -848,19 +849,19 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N4" s="4">
         <v>1125</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>3375</v>
       </c>
       <c r="Q4">
@@ -934,19 +935,19 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="K5" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N5" s="4">
         <v>1050</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>3375</v>
       </c>
       <c r="Q5">
@@ -1020,19 +1021,19 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="K6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N6" s="4">
         <v>900</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>3375</v>
       </c>
       <c r="Q6">
@@ -1106,19 +1107,19 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="K7" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N7" s="4">
         <v>825</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>3375</v>
       </c>
       <c r="Q7">
@@ -1192,19 +1193,19 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="K8" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N8" s="4">
         <v>765</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>3375</v>
       </c>
       <c r="Q8">
@@ -1278,19 +1279,19 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N9" s="5">
+      <c r="K9" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N9" s="4">
         <v>757.5</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>3375</v>
       </c>
       <c r="Q9">
@@ -1364,19 +1365,19 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="K10" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N10" s="4">
         <v>751.5</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>3375</v>
       </c>
       <c r="Q10">
@@ -1450,19 +1451,19 @@
       <c r="J11">
         <v>0.5</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N11" s="4">
         <v>1125</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>3375</v>
       </c>
       <c r="Q11">
@@ -1536,19 +1537,19 @@
       <c r="J12">
         <v>0.5</v>
       </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N12" s="4">
         <v>1125</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>3375</v>
       </c>
       <c r="Q12">
@@ -1622,19 +1623,19 @@
       <c r="J13">
         <v>0.5</v>
       </c>
-      <c r="K13" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="K13" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N13" s="4">
         <v>1050</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <v>3375</v>
       </c>
       <c r="Q13">
@@ -1708,19 +1709,19 @@
       <c r="J14">
         <v>0.5</v>
       </c>
-      <c r="K14" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="K14" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N14" s="4">
         <v>900</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <v>3375</v>
       </c>
       <c r="Q14">
@@ -1794,19 +1795,19 @@
       <c r="J15">
         <v>0.5</v>
       </c>
-      <c r="K15" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="K15" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N15" s="4">
         <v>825</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="4">
         <v>3375</v>
       </c>
       <c r="Q15">
@@ -1880,19 +1881,19 @@
       <c r="J16">
         <v>0.5</v>
       </c>
-      <c r="K16" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N16" s="5">
+      <c r="K16" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N16" s="4">
         <v>765</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <v>3375</v>
       </c>
       <c r="Q16">
@@ -1966,19 +1967,19 @@
       <c r="J17">
         <v>0.5</v>
       </c>
-      <c r="K17" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N17" s="5">
+      <c r="K17" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N17" s="4">
         <v>757.5</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <v>3375</v>
       </c>
       <c r="Q17">
@@ -2052,19 +2053,19 @@
       <c r="J18">
         <v>0.5</v>
       </c>
-      <c r="K18" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N18" s="5">
+      <c r="K18" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N18" s="4">
         <v>751.5</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <v>3375</v>
       </c>
       <c r="Q18">
@@ -2138,19 +2139,19 @@
       <c r="J19">
         <v>0.2</v>
       </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M19" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N19" s="5">
+      <c r="M19" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N19" s="4">
         <v>1125</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <v>2850</v>
       </c>
       <c r="Q19">
@@ -2224,19 +2225,19 @@
       <c r="J20">
         <v>0.2</v>
       </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M20" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N20" s="5">
+      <c r="M20" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N20" s="4">
         <v>1125</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="4">
         <v>2850</v>
       </c>
       <c r="Q20">
@@ -2310,19 +2311,19 @@
       <c r="J21">
         <v>0.2</v>
       </c>
-      <c r="K21" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="K21" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L21" s="4">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M21" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N21" s="5">
+      <c r="M21" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N21" s="4">
         <v>1050</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <v>2850</v>
       </c>
       <c r="Q21">
@@ -2396,19 +2397,19 @@
       <c r="J22">
         <v>0.2</v>
       </c>
-      <c r="K22" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L22" s="5">
+      <c r="K22" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="4">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M22" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N22" s="5">
+      <c r="M22" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N22" s="4">
         <v>900</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <v>2850</v>
       </c>
       <c r="Q22">
@@ -2482,19 +2483,19 @@
       <c r="J23">
         <v>0.2</v>
       </c>
-      <c r="K23" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L23" s="5">
+      <c r="K23" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L23" s="4">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M23" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N23" s="5">
+      <c r="M23" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N23" s="4">
         <v>825</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="4">
         <v>2850</v>
       </c>
       <c r="Q23">
@@ -2568,19 +2569,19 @@
       <c r="J24">
         <v>0.2</v>
       </c>
-      <c r="K24" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L24" s="5">
+      <c r="K24" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L24" s="4">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M24" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N24" s="5">
+      <c r="M24" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N24" s="4">
         <v>765</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="4">
         <v>2850</v>
       </c>
       <c r="Q24">
@@ -2654,19 +2655,19 @@
       <c r="J25">
         <v>0.2</v>
       </c>
-      <c r="K25" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L25" s="5">
+      <c r="K25" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L25" s="4">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M25" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N25" s="5">
+      <c r="M25" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N25" s="4">
         <v>757.5</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="4">
         <v>2850</v>
       </c>
       <c r="Q25">
@@ -2740,19 +2741,19 @@
       <c r="J26">
         <v>0.2</v>
       </c>
-      <c r="K26" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L26" s="5">
+      <c r="K26" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L26" s="4">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M26" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N26" s="5">
+      <c r="M26" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N26" s="4">
         <v>751.5</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="4">
         <v>2850</v>
       </c>
       <c r="Q26">
@@ -2826,19 +2827,19 @@
       <c r="J27">
         <v>0.1</v>
       </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5">
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M27" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N27" s="5">
+      <c r="M27" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N27" s="4">
         <v>1125</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="4">
         <v>2550</v>
       </c>
       <c r="Q27">
@@ -2912,19 +2913,19 @@
       <c r="J28">
         <v>0.1</v>
       </c>
-      <c r="K28" s="5">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M28" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N28" s="5">
+      <c r="M28" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N28" s="4">
         <v>1125</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="4">
         <v>2550</v>
       </c>
       <c r="Q28">
@@ -2998,19 +2999,19 @@
       <c r="J29">
         <v>0.1</v>
       </c>
-      <c r="K29" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L29" s="5">
+      <c r="K29" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L29" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M29" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N29" s="5">
+      <c r="M29" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N29" s="4">
         <v>1050</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="4">
         <v>2550</v>
       </c>
       <c r="Q29">
@@ -3084,19 +3085,19 @@
       <c r="J30">
         <v>0.1</v>
       </c>
-      <c r="K30" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="K30" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L30" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M30" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N30" s="5">
+      <c r="M30" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N30" s="4">
         <v>900</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="4">
         <v>2550</v>
       </c>
       <c r="Q30">
@@ -3170,19 +3171,19 @@
       <c r="J31">
         <v>0.1</v>
       </c>
-      <c r="K31" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L31" s="5">
+      <c r="K31" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L31" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M31" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N31" s="5">
+      <c r="M31" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N31" s="4">
         <v>825</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="4">
         <v>2550</v>
       </c>
       <c r="Q31">
@@ -3256,19 +3257,19 @@
       <c r="J32">
         <v>0.1</v>
       </c>
-      <c r="K32" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L32" s="5">
+      <c r="K32" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L32" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M32" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N32" s="5">
+      <c r="M32" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N32" s="4">
         <v>765</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="4">
         <v>2550</v>
       </c>
       <c r="Q32">
@@ -3342,19 +3343,19 @@
       <c r="J33">
         <v>0.1</v>
       </c>
-      <c r="K33" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L33" s="5">
+      <c r="K33" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L33" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M33" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N33" s="5">
+      <c r="M33" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N33" s="4">
         <v>757.5</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="4">
         <v>2550</v>
       </c>
       <c r="Q33">
@@ -3428,19 +3429,19 @@
       <c r="J34">
         <v>0.1</v>
       </c>
-      <c r="K34" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L34" s="5">
+      <c r="K34" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L34" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M34" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N34" s="5">
+      <c r="M34" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N34" s="4">
         <v>751.5</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="4">
         <v>2550</v>
       </c>
       <c r="Q34">
@@ -3514,19 +3515,19 @@
       <c r="J35">
         <v>0.05</v>
       </c>
-      <c r="K35" s="5">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M35" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N35" s="5">
+      <c r="M35" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N35" s="4">
         <v>1125</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="4">
         <v>2400</v>
       </c>
       <c r="Q35">
@@ -3600,19 +3601,19 @@
       <c r="J36">
         <v>0.05</v>
       </c>
-      <c r="K36" s="5">
-        <v>0</v>
-      </c>
-      <c r="L36" s="5">
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M36" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N36" s="5">
+      <c r="M36" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N36" s="4">
         <v>1125</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="4">
         <v>2400</v>
       </c>
       <c r="Q36">
@@ -3686,19 +3687,19 @@
       <c r="J37">
         <v>0.05</v>
       </c>
-      <c r="K37" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L37" s="5">
+      <c r="K37" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L37" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M37" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N37" s="5">
+      <c r="M37" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N37" s="4">
         <v>1050</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="4">
         <v>2400</v>
       </c>
       <c r="Q37">
@@ -3772,19 +3773,19 @@
       <c r="J38">
         <v>0.05</v>
       </c>
-      <c r="K38" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L38" s="5">
+      <c r="K38" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L38" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M38" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N38" s="5">
+      <c r="M38" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N38" s="4">
         <v>900</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="4">
         <v>2400</v>
       </c>
       <c r="Q38">
@@ -3858,19 +3859,19 @@
       <c r="J39">
         <v>0.05</v>
       </c>
-      <c r="K39" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L39" s="5">
+      <c r="K39" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L39" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M39" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N39" s="5">
+      <c r="M39" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N39" s="4">
         <v>825</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="4">
         <v>2400</v>
       </c>
       <c r="Q39">
@@ -3944,19 +3945,19 @@
       <c r="J40">
         <v>0.05</v>
       </c>
-      <c r="K40" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L40" s="5">
+      <c r="K40" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L40" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M40" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N40" s="5">
+      <c r="M40" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N40" s="4">
         <v>765</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="4">
         <v>2400</v>
       </c>
       <c r="Q40">
@@ -4030,19 +4031,19 @@
       <c r="J41">
         <v>0.05</v>
       </c>
-      <c r="K41" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L41" s="5">
+      <c r="K41" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M41" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N41" s="5">
+      <c r="M41" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N41" s="4">
         <v>757.5</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="4">
         <v>2400</v>
       </c>
       <c r="Q41">
@@ -4116,19 +4117,19 @@
       <c r="J42">
         <v>0.05</v>
       </c>
-      <c r="K42" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L42" s="5">
+      <c r="K42" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L42" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M42" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N42" s="5">
+      <c r="M42" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N42" s="4">
         <v>751.5</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="4">
         <v>2400</v>
       </c>
       <c r="Q42">
@@ -4202,19 +4203,19 @@
       <c r="J43">
         <v>0.01</v>
       </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5">
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M43" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N43" s="5">
+      <c r="M43" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N43" s="4">
         <v>1125</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="4">
         <v>2280</v>
       </c>
       <c r="Q43">
@@ -4288,19 +4289,19 @@
       <c r="J44">
         <v>0.01</v>
       </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M44" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N44" s="5">
+      <c r="M44" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N44" s="4">
         <v>1125</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="4">
         <v>2280</v>
       </c>
       <c r="Q44">
@@ -4374,19 +4375,19 @@
       <c r="J45">
         <v>0.01</v>
       </c>
-      <c r="K45" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L45" s="5">
+      <c r="K45" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M45" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N45" s="5">
+      <c r="M45" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N45" s="4">
         <v>1050</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="4">
         <v>2280</v>
       </c>
       <c r="Q45">
@@ -4460,19 +4461,19 @@
       <c r="J46">
         <v>0.01</v>
       </c>
-      <c r="K46" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L46" s="5">
+      <c r="K46" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M46" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N46" s="5">
+      <c r="M46" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N46" s="4">
         <v>900</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="4">
         <v>2280</v>
       </c>
       <c r="Q46">
@@ -4546,19 +4547,19 @@
       <c r="J47">
         <v>0.01</v>
       </c>
-      <c r="K47" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L47" s="5">
+      <c r="K47" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L47" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M47" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N47" s="5">
+      <c r="M47" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N47" s="4">
         <v>825</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="4">
         <v>2280</v>
       </c>
       <c r="Q47">
@@ -4632,19 +4633,19 @@
       <c r="J48">
         <v>0.01</v>
       </c>
-      <c r="K48" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L48" s="5">
+      <c r="K48" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L48" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M48" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N48" s="5">
+      <c r="M48" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N48" s="4">
         <v>765</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="4">
         <v>2280</v>
       </c>
       <c r="Q48">
@@ -4718,19 +4719,19 @@
       <c r="J49">
         <v>0.01</v>
       </c>
-      <c r="K49" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L49" s="5">
+      <c r="K49" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L49" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M49" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N49" s="5">
+      <c r="M49" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N49" s="4">
         <v>757.5</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="4">
         <v>2280</v>
       </c>
       <c r="Q49">
@@ -4804,19 +4805,19 @@
       <c r="J50">
         <v>0.01</v>
       </c>
-      <c r="K50" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L50" s="5">
+      <c r="K50" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L50" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M50" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N50" s="5">
+      <c r="M50" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N50" s="4">
         <v>751.5</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="4">
         <v>2280</v>
       </c>
       <c r="Q50">
@@ -4890,19 +4891,19 @@
       <c r="J51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K51" s="5">
-        <v>0</v>
-      </c>
-      <c r="L51" s="5">
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M51" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N51" s="5">
+      <c r="M51" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N51" s="4">
         <v>1125</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="4">
         <v>2265</v>
       </c>
       <c r="Q51">
@@ -4976,19 +4977,19 @@
       <c r="J52">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K52" s="5">
-        <v>0</v>
-      </c>
-      <c r="L52" s="5">
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M52" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N52" s="5">
+      <c r="M52" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N52" s="4">
         <v>1125</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="4">
         <v>2265</v>
       </c>
       <c r="Q52">
@@ -5062,19 +5063,19 @@
       <c r="J53">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K53" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L53" s="5">
+      <c r="K53" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L53" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M53" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N53" s="5">
+      <c r="M53" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N53" s="4">
         <v>1050</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="4">
         <v>2265</v>
       </c>
       <c r="Q53">
@@ -5148,19 +5149,19 @@
       <c r="J54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K54" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L54" s="5">
+      <c r="K54" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M54" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N54" s="5">
+      <c r="M54" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N54" s="4">
         <v>900</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54" s="4">
         <v>2265</v>
       </c>
       <c r="Q54">
@@ -5234,19 +5235,19 @@
       <c r="J55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K55" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L55" s="5">
+      <c r="K55" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L55" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M55" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N55" s="5">
+      <c r="M55" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N55" s="4">
         <v>825</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55" s="4">
         <v>2265</v>
       </c>
       <c r="Q55">
@@ -5320,19 +5321,19 @@
       <c r="J56">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K56" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L56" s="5">
+      <c r="K56" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L56" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M56" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N56" s="5">
+      <c r="M56" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N56" s="4">
         <v>765</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56" s="4">
         <v>2265</v>
       </c>
       <c r="Q56">
@@ -5406,19 +5407,19 @@
       <c r="J57">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K57" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L57" s="5">
+      <c r="K57" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M57" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N57" s="5">
+      <c r="M57" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N57" s="4">
         <v>757.5</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O57" s="4">
         <v>2265</v>
       </c>
       <c r="Q57">
@@ -5492,19 +5493,19 @@
       <c r="J58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K58" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L58" s="5">
+      <c r="K58" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M58" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N58" s="5">
+      <c r="M58" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N58" s="4">
         <v>751.5</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O58" s="4">
         <v>2265</v>
       </c>
       <c r="Q58">
@@ -5578,19 +5579,19 @@
       <c r="J59">
         <v>1E-3</v>
       </c>
-      <c r="K59" s="5">
-        <v>0</v>
-      </c>
-      <c r="L59" s="5">
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M59" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N59" s="5">
+      <c r="M59" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N59" s="4">
         <v>1125</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59" s="4">
         <v>2253</v>
       </c>
       <c r="Q59">
@@ -5664,19 +5665,19 @@
       <c r="J60">
         <v>1E-3</v>
       </c>
-      <c r="K60" s="5">
-        <v>0</v>
-      </c>
-      <c r="L60" s="5">
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M60" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N60" s="5">
+      <c r="M60" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N60" s="4">
         <v>1125</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="4">
         <v>2253</v>
       </c>
       <c r="Q60">
@@ -5750,19 +5751,19 @@
       <c r="J61">
         <v>1E-3</v>
       </c>
-      <c r="K61" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L61" s="5">
+      <c r="K61" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L61" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M61" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N61" s="5">
+      <c r="M61" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N61" s="4">
         <v>1050</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61" s="4">
         <v>2253</v>
       </c>
       <c r="Q61">
@@ -5836,19 +5837,19 @@
       <c r="J62">
         <v>1E-3</v>
       </c>
-      <c r="K62" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L62" s="5">
+      <c r="K62" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L62" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M62" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N62" s="5">
+      <c r="M62" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N62" s="4">
         <v>900</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O62" s="4">
         <v>2253</v>
       </c>
       <c r="Q62">
@@ -5922,19 +5923,19 @@
       <c r="J63">
         <v>1E-3</v>
       </c>
-      <c r="K63" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L63" s="5">
+      <c r="K63" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L63" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M63" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N63" s="5">
+      <c r="M63" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N63" s="4">
         <v>825</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63" s="4">
         <v>2253</v>
       </c>
       <c r="Q63">
@@ -6008,19 +6009,19 @@
       <c r="J64">
         <v>1E-3</v>
       </c>
-      <c r="K64" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L64" s="5">
+      <c r="K64" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L64" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M64" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N64" s="5">
+      <c r="M64" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N64" s="4">
         <v>765</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O64" s="4">
         <v>2253</v>
       </c>
       <c r="Q64">
@@ -6094,19 +6095,19 @@
       <c r="J65">
         <v>1E-3</v>
       </c>
-      <c r="K65" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L65" s="5">
+      <c r="K65" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L65" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M65" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N65" s="5">
+      <c r="M65" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N65" s="4">
         <v>757.5</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65" s="4">
         <v>2253</v>
       </c>
       <c r="Q65">
@@ -6180,19 +6181,19 @@
       <c r="J66">
         <v>1E-3</v>
       </c>
-      <c r="K66" s="5">
-        <v>1500</v>
-      </c>
-      <c r="L66" s="5">
+      <c r="K66" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L66" s="4">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M66" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N66" s="5">
+      <c r="M66" s="4">
+        <v>4000</v>
+      </c>
+      <c r="N66" s="4">
         <v>751.5</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="4">
         <v>2253</v>
       </c>
       <c r="Q66">
@@ -6247,4 +6248,5656 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAAF831-0D83-478A-B34D-1DECE7B9A80D}">
+  <dimension ref="A1:AE66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:AE66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="8" max="8" width="9.26171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="Y1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>450</v>
+      </c>
+      <c r="G3" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O3" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>6936.8983957219298</v>
+      </c>
+      <c r="V3" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W3" s="2">
+        <v>8952.6737967914396</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>6604.9946550662198</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>4500</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>16394.798913430201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>450</v>
+      </c>
+      <c r="G4" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>6936.8983957219298</v>
+      </c>
+      <c r="V4" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W4" s="2">
+        <v>8952.6737967914396</v>
+      </c>
+      <c r="Y4">
+        <v>0.5</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>6604.9946550662198</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>3913.5587708798998</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>16394.798913430201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>450</v>
+      </c>
+      <c r="G5" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>300</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1123.262979047</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q5">
+        <v>0.2</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>6936.8983957219298</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1953.64779008563</v>
+      </c>
+      <c r="W5" s="2">
+        <v>8952.6737967914396</v>
+      </c>
+      <c r="Y5">
+        <v>0.2</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>6604.9946550662198</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>3463.5587708798998</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>16394.798913430201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>0.1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>450</v>
+      </c>
+      <c r="G6" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1030.00646987357</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q6">
+        <v>0.1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>6936.8983957219298</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1803.64779008563</v>
+      </c>
+      <c r="W6" s="2">
+        <v>8952.6737967914396</v>
+      </c>
+      <c r="Y6">
+        <v>0.1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>6604.9946550662198</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>3313.5587708798998</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>16394.798913430201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1350</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>429.84260510932899</v>
+      </c>
+      <c r="G7" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I7">
+        <v>0.05</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>955.00646987357698</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q7">
+        <v>0.05</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>6936.8983957219298</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1728.64779008563</v>
+      </c>
+      <c r="W7" s="2">
+        <v>8952.6737967914396</v>
+      </c>
+      <c r="Y7">
+        <v>0.05</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>6604.9946550662198</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>3238.5587708798998</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>16394.798913430201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>0.01</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>370.994719951229</v>
+      </c>
+      <c r="G8" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I8">
+        <v>0.01</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>895.00646987357698</v>
+      </c>
+      <c r="O8" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q8">
+        <v>0.01</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>6936.8983957219298</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1668.64779008563</v>
+      </c>
+      <c r="W8" s="2">
+        <v>8952.6737967914396</v>
+      </c>
+      <c r="Y8">
+        <v>0.01</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>6604.9946550662198</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>3178.5587708798998</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>16394.798913430201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>363.494719951229</v>
+      </c>
+      <c r="G9" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>887.50646987357698</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>6936.8983957219298</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1661.14779008563</v>
+      </c>
+      <c r="W9" s="2">
+        <v>8952.6737967914396</v>
+      </c>
+      <c r="Y9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>6604.9946550662198</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>3171.0587708798998</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>16394.798913430201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>1E-3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>357.494719951229</v>
+      </c>
+      <c r="G10" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I10">
+        <v>1E-3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>881.506469873578</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q10">
+        <v>1E-3</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>6936.8983957219298</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1655.14779008563</v>
+      </c>
+      <c r="W10" s="2">
+        <v>8952.6737967914396</v>
+      </c>
+      <c r="Y10">
+        <v>1E-3</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>6604.9946550662198</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>3165.0587708798998</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>16394.798913430201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>450</v>
+      </c>
+      <c r="G11" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>4285.2265895236796</v>
+      </c>
+      <c r="U11" s="2">
+        <v>6755.3938909199596</v>
+      </c>
+      <c r="V11" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W11" s="2">
+        <v>8539.6453240952196</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>0.5</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>6113.3791536467998</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>4500</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>14157.375661300999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>450</v>
+      </c>
+      <c r="G12" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>4285.2265895236796</v>
+      </c>
+      <c r="U12" s="2">
+        <v>6755.3938909199596</v>
+      </c>
+      <c r="V12" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W12" s="2">
+        <v>8539.6453240952196</v>
+      </c>
+      <c r="Y12">
+        <v>0.5</v>
+      </c>
+      <c r="Z12">
+        <v>0.5</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>6113.3791536467998</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>3913.5587708798998</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>14157.375661300999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>0.2</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>450</v>
+      </c>
+      <c r="G13" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="J13">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>300</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1123.262979047</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q13">
+        <v>0.2</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T13" s="2">
+        <v>4285.2265895236796</v>
+      </c>
+      <c r="U13" s="2">
+        <v>6755.3938909199596</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1953.64779008563</v>
+      </c>
+      <c r="W13" s="2">
+        <v>8539.6453240952196</v>
+      </c>
+      <c r="Y13">
+        <v>0.2</v>
+      </c>
+      <c r="Z13">
+        <v>0.5</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>6113.3791536467998</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>3463.5587708798998</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>14157.375661300999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>0.1</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>450</v>
+      </c>
+      <c r="G14" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1030.00646987357</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q14">
+        <v>0.1</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T14" s="2">
+        <v>4285.2265895236796</v>
+      </c>
+      <c r="U14" s="2">
+        <v>6755.3938909199596</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1803.64779008563</v>
+      </c>
+      <c r="W14" s="2">
+        <v>8539.6453240952196</v>
+      </c>
+      <c r="Y14">
+        <v>0.1</v>
+      </c>
+      <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>6113.3791536467998</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>3313.5587708798998</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>14157.375661300999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>0.05</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1350</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>429.84260510932899</v>
+      </c>
+      <c r="G15" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I15">
+        <v>0.05</v>
+      </c>
+      <c r="J15">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N15" s="2">
+        <v>955.00646987357698</v>
+      </c>
+      <c r="O15" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q15">
+        <v>0.05</v>
+      </c>
+      <c r="R15">
+        <v>0.5</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T15" s="2">
+        <v>4285.2265895236796</v>
+      </c>
+      <c r="U15" s="2">
+        <v>6755.3938909199596</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1728.64779008563</v>
+      </c>
+      <c r="W15" s="2">
+        <v>8539.6453240952196</v>
+      </c>
+      <c r="Y15">
+        <v>0.05</v>
+      </c>
+      <c r="Z15">
+        <v>0.5</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>6113.3791536467998</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>3238.5587708798998</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>14157.375661300999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>0.01</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>370.994719951229</v>
+      </c>
+      <c r="G16" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I16">
+        <v>0.01</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>895.00646987357698</v>
+      </c>
+      <c r="O16" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q16">
+        <v>0.01</v>
+      </c>
+      <c r="R16">
+        <v>0.5</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T16" s="2">
+        <v>4285.2265895236796</v>
+      </c>
+      <c r="U16" s="2">
+        <v>6755.3938909199596</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1668.64779008563</v>
+      </c>
+      <c r="W16" s="2">
+        <v>8539.6453240952196</v>
+      </c>
+      <c r="Y16">
+        <v>0.01</v>
+      </c>
+      <c r="Z16">
+        <v>0.5</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>6113.3791536467998</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>3178.5587708798998</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>14157.375661300999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>363.494719951229</v>
+      </c>
+      <c r="G17" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N17" s="2">
+        <v>887.50646987357698</v>
+      </c>
+      <c r="O17" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R17">
+        <v>0.5</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T17" s="2">
+        <v>4285.2265895236796</v>
+      </c>
+      <c r="U17" s="2">
+        <v>6755.3938909199596</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1661.14779008563</v>
+      </c>
+      <c r="W17" s="2">
+        <v>8539.6453240952196</v>
+      </c>
+      <c r="Y17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z17">
+        <v>0.5</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>6113.3791536467998</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>3171.0587708798998</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>14157.375661300999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>1E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>357.494719951229</v>
+      </c>
+      <c r="G18" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I18">
+        <v>1E-3</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>881.50646987357698</v>
+      </c>
+      <c r="O18" s="2">
+        <v>3375</v>
+      </c>
+      <c r="Q18">
+        <v>1E-3</v>
+      </c>
+      <c r="R18">
+        <v>0.5</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T18" s="2">
+        <v>4285.2265895236796</v>
+      </c>
+      <c r="U18" s="2">
+        <v>6755.3938909199596</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1655.14779008563</v>
+      </c>
+      <c r="W18" s="2">
+        <v>8539.6453240952196</v>
+      </c>
+      <c r="Y18">
+        <v>1E-3</v>
+      </c>
+      <c r="Z18">
+        <v>0.5</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>6113.3791536467998</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>3165.0587708798998</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>14157.375661300999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>450</v>
+      </c>
+      <c r="G19" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M19" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3229.0974129953102</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0.2</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U19" s="2">
+        <v>6166.4541603834596</v>
+      </c>
+      <c r="V19" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W19" s="2">
+        <v>7199.4643865531198</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0.2</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>5818.4098527951401</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>4500</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>12814.9217100236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>0.5</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>450</v>
+      </c>
+      <c r="G20" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M20" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O20" s="2">
+        <v>3229.0974129953102</v>
+      </c>
+      <c r="Q20">
+        <v>0.5</v>
+      </c>
+      <c r="R20">
+        <v>0.2</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U20" s="2">
+        <v>6166.4541603834596</v>
+      </c>
+      <c r="V20" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W20" s="2">
+        <v>7199.4643865531198</v>
+      </c>
+      <c r="Y20">
+        <v>0.5</v>
+      </c>
+      <c r="Z20">
+        <v>0.2</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>5818.4098527951401</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>3913.5587708798998</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>12814.9217100236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>450</v>
+      </c>
+      <c r="G21" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I21">
+        <v>0.2</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>300</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M21" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1123.262979047</v>
+      </c>
+      <c r="O21" s="2">
+        <v>3229.0974129953102</v>
+      </c>
+      <c r="Q21">
+        <v>0.2</v>
+      </c>
+      <c r="R21">
+        <v>0.2</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T21" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U21" s="2">
+        <v>6166.4541603834596</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1953.64779008563</v>
+      </c>
+      <c r="W21" s="2">
+        <v>7199.4643865531198</v>
+      </c>
+      <c r="Y21">
+        <v>0.2</v>
+      </c>
+      <c r="Z21">
+        <v>0.2</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>5818.4098527951401</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>3463.5587708798998</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>12814.9217100236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>0.1</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F22" s="2">
+        <v>450</v>
+      </c>
+      <c r="G22" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I22">
+        <v>0.1</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1030.00646987357</v>
+      </c>
+      <c r="O22" s="2">
+        <v>3229.0974129953102</v>
+      </c>
+      <c r="Q22">
+        <v>0.1</v>
+      </c>
+      <c r="R22">
+        <v>0.2</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T22" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U22" s="2">
+        <v>6166.4541603834596</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1803.64779008563</v>
+      </c>
+      <c r="W22" s="2">
+        <v>7199.4643865531198</v>
+      </c>
+      <c r="Y22">
+        <v>0.1</v>
+      </c>
+      <c r="Z22">
+        <v>0.2</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>5818.4098527951401</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>3313.5587708798998</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>12814.9217100236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>0.05</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1350</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F23" s="2">
+        <v>429.84260510932899</v>
+      </c>
+      <c r="G23" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I23">
+        <v>0.05</v>
+      </c>
+      <c r="J23">
+        <v>0.2</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N23" s="2">
+        <v>955.00646987357698</v>
+      </c>
+      <c r="O23" s="2">
+        <v>3229.0974129953102</v>
+      </c>
+      <c r="Q23">
+        <v>0.05</v>
+      </c>
+      <c r="R23">
+        <v>0.2</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T23" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U23" s="2">
+        <v>6166.4541603834596</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1728.64779008563</v>
+      </c>
+      <c r="W23" s="2">
+        <v>7199.4643865531198</v>
+      </c>
+      <c r="Y23">
+        <v>0.05</v>
+      </c>
+      <c r="Z23">
+        <v>0.2</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>5818.4098527951401</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>3238.5587708798998</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>12814.9217100236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>0.01</v>
+      </c>
+      <c r="B24">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>370.994719951229</v>
+      </c>
+      <c r="G24" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I24">
+        <v>0.01</v>
+      </c>
+      <c r="J24">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M24" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>895.00646987357698</v>
+      </c>
+      <c r="O24" s="2">
+        <v>3229.0974129953102</v>
+      </c>
+      <c r="Q24">
+        <v>0.01</v>
+      </c>
+      <c r="R24">
+        <v>0.2</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T24" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U24" s="2">
+        <v>6166.4541603834596</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1668.64779008563</v>
+      </c>
+      <c r="W24" s="2">
+        <v>7199.4643865531198</v>
+      </c>
+      <c r="Y24">
+        <v>0.01</v>
+      </c>
+      <c r="Z24">
+        <v>0.2</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>5818.4098527951401</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>3178.5587708798998</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>12814.9217100236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B25">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>363.494719951229</v>
+      </c>
+      <c r="G25" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J25">
+        <v>0.2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N25" s="2">
+        <v>887.50646987357698</v>
+      </c>
+      <c r="O25" s="2">
+        <v>3229.0974129953102</v>
+      </c>
+      <c r="Q25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R25">
+        <v>0.2</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T25" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U25" s="2">
+        <v>6166.4541603834596</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1661.14779008563</v>
+      </c>
+      <c r="W25" s="2">
+        <v>7199.4643865531198</v>
+      </c>
+      <c r="Y25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z25">
+        <v>0.2</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>5818.4098527951401</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>3171.0587708798998</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>12814.9217100236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>1E-3</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>357.494719951229</v>
+      </c>
+      <c r="G26" s="2">
+        <v>525.99623692484602</v>
+      </c>
+      <c r="I26">
+        <v>1E-3</v>
+      </c>
+      <c r="J26">
+        <v>0.2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>881.50646987357698</v>
+      </c>
+      <c r="O26" s="2">
+        <v>3229.0974129953102</v>
+      </c>
+      <c r="Q26">
+        <v>1E-3</v>
+      </c>
+      <c r="R26">
+        <v>0.2</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T26" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U26" s="2">
+        <v>6166.4541603834596</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1655.14779008563</v>
+      </c>
+      <c r="W26" s="2">
+        <v>7199.4643865531198</v>
+      </c>
+      <c r="Y26">
+        <v>1E-3</v>
+      </c>
+      <c r="Z26">
+        <v>0.2</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>5818.4098527951401</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>3165.0587708798998</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>12814.9217100236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>150</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F27" s="2">
+        <v>450</v>
+      </c>
+      <c r="G27" s="2">
+        <v>524.97494396499201</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M27" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2929.0974129953102</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0.1</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U27" s="2">
+        <v>5969.8079598156901</v>
+      </c>
+      <c r="V27" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W27" s="2">
+        <v>6751.9797361272904</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>0.1</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>5720.0867525112599</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>4500</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>12367.4370595977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>0.5</v>
+      </c>
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>150</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>450</v>
+      </c>
+      <c r="G28" s="2">
+        <v>524.97494396499201</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M28" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O28" s="2">
+        <v>2929.0974129953102</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>0.1</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U28" s="2">
+        <v>5969.8079598156901</v>
+      </c>
+      <c r="V28" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W28" s="2">
+        <v>6751.9797361272904</v>
+      </c>
+      <c r="Y28">
+        <v>0.5</v>
+      </c>
+      <c r="Z28">
+        <v>0.1</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>5720.0867525112599</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>3913.5587708798998</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>12367.4370595977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>0.2</v>
+      </c>
+      <c r="B29">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>150</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F29" s="2">
+        <v>450</v>
+      </c>
+      <c r="G29" s="2">
+        <v>524.97494396499201</v>
+      </c>
+      <c r="I29">
+        <v>0.2</v>
+      </c>
+      <c r="J29">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>300</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M29" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1123.262979047</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2929.0974129953102</v>
+      </c>
+      <c r="Q29">
+        <v>0.2</v>
+      </c>
+      <c r="R29">
+        <v>0.1</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T29" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U29" s="2">
+        <v>5969.8079598156901</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1953.64779008563</v>
+      </c>
+      <c r="W29" s="2">
+        <v>6751.9797361272904</v>
+      </c>
+      <c r="Y29">
+        <v>0.2</v>
+      </c>
+      <c r="Z29">
+        <v>0.1</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>5720.0867525112599</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>3463.5587708798998</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>12367.4370595977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>150</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="2">
+        <v>450</v>
+      </c>
+      <c r="G30" s="2">
+        <v>524.97494396499201</v>
+      </c>
+      <c r="I30">
+        <v>0.1</v>
+      </c>
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M30" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1030.00646987357</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2929.0974129953102</v>
+      </c>
+      <c r="Q30">
+        <v>0.1</v>
+      </c>
+      <c r="R30">
+        <v>0.1</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T30" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U30" s="2">
+        <v>5969.8079598156901</v>
+      </c>
+      <c r="V30" s="2">
+        <v>1803.64779008563</v>
+      </c>
+      <c r="W30" s="2">
+        <v>6751.9797361272904</v>
+      </c>
+      <c r="Y30">
+        <v>0.1</v>
+      </c>
+      <c r="Z30">
+        <v>0.1</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>5720.0867525112599</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>3313.5587708798998</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>12367.4370595977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>0.05</v>
+      </c>
+      <c r="B31">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1350</v>
+      </c>
+      <c r="D31" s="2">
+        <v>150</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F31" s="2">
+        <v>429.84260510932899</v>
+      </c>
+      <c r="G31" s="2">
+        <v>524.97494396499201</v>
+      </c>
+      <c r="I31">
+        <v>0.05</v>
+      </c>
+      <c r="J31">
+        <v>0.1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M31" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N31" s="2">
+        <v>955.00646987357698</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2929.0974129953102</v>
+      </c>
+      <c r="Q31">
+        <v>0.05</v>
+      </c>
+      <c r="R31">
+        <v>0.1</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T31" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U31" s="2">
+        <v>5969.8079598156901</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1728.64779008563</v>
+      </c>
+      <c r="W31" s="2">
+        <v>6751.9797361272904</v>
+      </c>
+      <c r="Y31">
+        <v>0.05</v>
+      </c>
+      <c r="Z31">
+        <v>0.1</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>5720.0867525112599</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>3238.5587708798998</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>12367.4370595977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>0.01</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D32" s="2">
+        <v>150</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>370.994719951229</v>
+      </c>
+      <c r="G32" s="2">
+        <v>524.97494396499201</v>
+      </c>
+      <c r="I32">
+        <v>0.01</v>
+      </c>
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M32" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N32" s="2">
+        <v>895.00646987357698</v>
+      </c>
+      <c r="O32" s="2">
+        <v>2929.0974129953102</v>
+      </c>
+      <c r="Q32">
+        <v>0.01</v>
+      </c>
+      <c r="R32">
+        <v>0.1</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T32" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U32" s="2">
+        <v>5969.8079598156901</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1668.64779008563</v>
+      </c>
+      <c r="W32" s="2">
+        <v>6751.9797361272904</v>
+      </c>
+      <c r="Y32">
+        <v>0.01</v>
+      </c>
+      <c r="Z32">
+        <v>0.1</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>5720.0867525112599</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>3178.5587708798998</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>12367.4370595977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B33">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D33" s="2">
+        <v>150</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="2">
+        <v>363.494719951229</v>
+      </c>
+      <c r="G33" s="2">
+        <v>524.97494396499201</v>
+      </c>
+      <c r="I33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M33" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N33" s="2">
+        <v>887.50646987357698</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2929.0974129953102</v>
+      </c>
+      <c r="Q33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R33">
+        <v>0.1</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T33" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U33" s="2">
+        <v>5969.8079598156901</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1661.14779008563</v>
+      </c>
+      <c r="W33" s="2">
+        <v>6751.9797361272904</v>
+      </c>
+      <c r="Y33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z33">
+        <v>0.1</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>5720.0867525112599</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>3171.0587708798998</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>12367.4370595977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>1E-3</v>
+      </c>
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D34" s="2">
+        <v>150</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F34" s="2">
+        <v>357.494719951229</v>
+      </c>
+      <c r="G34" s="2">
+        <v>524.97494396499201</v>
+      </c>
+      <c r="I34">
+        <v>1E-3</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M34" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N34" s="2">
+        <v>881.50646987357698</v>
+      </c>
+      <c r="O34" s="2">
+        <v>2929.0974129953102</v>
+      </c>
+      <c r="Q34">
+        <v>1E-3</v>
+      </c>
+      <c r="R34">
+        <v>0.1</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T34" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U34" s="2">
+        <v>5969.8079598156901</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1655.14779008563</v>
+      </c>
+      <c r="W34" s="2">
+        <v>6751.9797361272904</v>
+      </c>
+      <c r="Y34">
+        <v>1E-3</v>
+      </c>
+      <c r="Z34">
+        <v>0.1</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>5720.0867525112599</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>3165.0587708798998</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>12367.4370595977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0.05</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F35" s="2">
+        <v>450</v>
+      </c>
+      <c r="G35" s="2">
+        <v>473.49705862302397</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0.05</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2779.0974129953102</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>0.05</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U35" s="2">
+        <v>5871.4848595318099</v>
+      </c>
+      <c r="V35" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W35" s="2">
+        <v>6528.2374109143802</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>0.05</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>5670.9252023693198</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>4500</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>12143.694734384801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>0.5</v>
+      </c>
+      <c r="B36">
+        <v>0.05</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F36" s="2">
+        <v>450</v>
+      </c>
+      <c r="G36" s="2">
+        <v>473.49705862302397</v>
+      </c>
+      <c r="I36">
+        <v>0.5</v>
+      </c>
+      <c r="J36">
+        <v>0.05</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M36" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2779.0974129953102</v>
+      </c>
+      <c r="Q36">
+        <v>0.5</v>
+      </c>
+      <c r="R36">
+        <v>0.05</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U36" s="2">
+        <v>5871.4848595318099</v>
+      </c>
+      <c r="V36" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W36" s="2">
+        <v>6528.2374109143802</v>
+      </c>
+      <c r="Y36">
+        <v>0.5</v>
+      </c>
+      <c r="Z36">
+        <v>0.05</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>5670.9252023693198</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>3913.5587708798998</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>12143.694734384801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>0.2</v>
+      </c>
+      <c r="B37">
+        <v>0.05</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F37" s="2">
+        <v>450</v>
+      </c>
+      <c r="G37" s="2">
+        <v>473.49705862302397</v>
+      </c>
+      <c r="I37">
+        <v>0.2</v>
+      </c>
+      <c r="J37">
+        <v>0.05</v>
+      </c>
+      <c r="K37" s="2">
+        <v>300</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M37" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1123.262979047</v>
+      </c>
+      <c r="O37" s="2">
+        <v>2779.0974129953102</v>
+      </c>
+      <c r="Q37">
+        <v>0.2</v>
+      </c>
+      <c r="R37">
+        <v>0.05</v>
+      </c>
+      <c r="S37" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T37" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U37" s="2">
+        <v>5871.4848595318099</v>
+      </c>
+      <c r="V37" s="2">
+        <v>1953.64779008563</v>
+      </c>
+      <c r="W37" s="2">
+        <v>6528.2374109143802</v>
+      </c>
+      <c r="Y37">
+        <v>0.2</v>
+      </c>
+      <c r="Z37">
+        <v>0.05</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>5670.9252023693198</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>3463.5587708798998</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>12143.694734384801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>0.1</v>
+      </c>
+      <c r="B38">
+        <v>0.05</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F38" s="2">
+        <v>450</v>
+      </c>
+      <c r="G38" s="2">
+        <v>473.49705862302397</v>
+      </c>
+      <c r="I38">
+        <v>0.1</v>
+      </c>
+      <c r="J38">
+        <v>0.05</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1030.00646987357</v>
+      </c>
+      <c r="O38" s="2">
+        <v>2779.0974129953102</v>
+      </c>
+      <c r="Q38">
+        <v>0.1</v>
+      </c>
+      <c r="R38">
+        <v>0.05</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T38" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U38" s="2">
+        <v>5871.4848595318099</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1803.64779008563</v>
+      </c>
+      <c r="W38" s="2">
+        <v>6528.2374109143802</v>
+      </c>
+      <c r="Y38">
+        <v>0.1</v>
+      </c>
+      <c r="Z38">
+        <v>0.05</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>5670.9252023693198</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>3313.5587708798998</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>12143.694734384801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>0.05</v>
+      </c>
+      <c r="B39">
+        <v>0.05</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1350</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>429.84260510932899</v>
+      </c>
+      <c r="G39" s="2">
+        <v>473.49705862302397</v>
+      </c>
+      <c r="I39">
+        <v>0.05</v>
+      </c>
+      <c r="J39">
+        <v>0.05</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M39" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N39" s="2">
+        <v>955.00646987357698</v>
+      </c>
+      <c r="O39" s="2">
+        <v>2779.0974129953102</v>
+      </c>
+      <c r="Q39">
+        <v>0.05</v>
+      </c>
+      <c r="R39">
+        <v>0.05</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T39" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U39" s="2">
+        <v>5871.4848595318099</v>
+      </c>
+      <c r="V39" s="2">
+        <v>1728.64779008563</v>
+      </c>
+      <c r="W39" s="2">
+        <v>6528.2374109143802</v>
+      </c>
+      <c r="Y39">
+        <v>0.05</v>
+      </c>
+      <c r="Z39">
+        <v>0.05</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>5670.9252023693198</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>3238.5587708798998</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>12143.694734384801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>0.01</v>
+      </c>
+      <c r="B40">
+        <v>0.05</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F40" s="2">
+        <v>370.994719951229</v>
+      </c>
+      <c r="G40" s="2">
+        <v>473.49705862302397</v>
+      </c>
+      <c r="I40">
+        <v>0.01</v>
+      </c>
+      <c r="J40">
+        <v>0.05</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M40" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N40" s="2">
+        <v>895.00646987357698</v>
+      </c>
+      <c r="O40" s="2">
+        <v>2779.0974129953102</v>
+      </c>
+      <c r="Q40">
+        <v>0.01</v>
+      </c>
+      <c r="R40">
+        <v>0.05</v>
+      </c>
+      <c r="S40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T40" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U40" s="2">
+        <v>5871.4848595318099</v>
+      </c>
+      <c r="V40" s="2">
+        <v>1668.64779008563</v>
+      </c>
+      <c r="W40" s="2">
+        <v>6528.2374109143802</v>
+      </c>
+      <c r="Y40">
+        <v>0.01</v>
+      </c>
+      <c r="Z40">
+        <v>0.05</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>5670.9252023693198</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>3178.5587708798998</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>12143.694734384801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B41">
+        <v>0.05</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F41" s="2">
+        <v>363.494719951229</v>
+      </c>
+      <c r="G41" s="2">
+        <v>473.49705862302397</v>
+      </c>
+      <c r="I41">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J41">
+        <v>0.05</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M41" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N41" s="2">
+        <v>887.50646987357698</v>
+      </c>
+      <c r="O41" s="2">
+        <v>2779.0974129953102</v>
+      </c>
+      <c r="Q41">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R41">
+        <v>0.05</v>
+      </c>
+      <c r="S41" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T41" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U41" s="2">
+        <v>5871.4848595318099</v>
+      </c>
+      <c r="V41" s="2">
+        <v>1661.14779008563</v>
+      </c>
+      <c r="W41" s="2">
+        <v>6528.2374109143802</v>
+      </c>
+      <c r="Y41">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z41">
+        <v>0.05</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>5670.9252023693198</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>3171.0587708798998</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>12143.694734384801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>1E-3</v>
+      </c>
+      <c r="B42">
+        <v>0.05</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F42" s="2">
+        <v>357.494719951229</v>
+      </c>
+      <c r="G42" s="2">
+        <v>473.49705862302397</v>
+      </c>
+      <c r="I42">
+        <v>1E-3</v>
+      </c>
+      <c r="J42">
+        <v>0.05</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1945.4598649172999</v>
+      </c>
+      <c r="M42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N42" s="2">
+        <v>881.50646987357698</v>
+      </c>
+      <c r="O42" s="2">
+        <v>2779.0974129953102</v>
+      </c>
+      <c r="Q42">
+        <v>1E-3</v>
+      </c>
+      <c r="R42">
+        <v>0.05</v>
+      </c>
+      <c r="S42" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T42" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U42" s="2">
+        <v>5871.4848595318099</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1655.14779008563</v>
+      </c>
+      <c r="W42" s="2">
+        <v>6528.2374109143802</v>
+      </c>
+      <c r="Y42">
+        <v>1E-3</v>
+      </c>
+      <c r="Z42">
+        <v>0.05</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>5670.9252023693198</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>3165.0587708798998</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>12143.694734384801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0.01</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F43" s="2">
+        <v>450</v>
+      </c>
+      <c r="G43" s="2">
+        <v>413.49705862302397</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.01</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>2030.8082203409599</v>
+      </c>
+      <c r="M43" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O43" s="2">
+        <v>2659.0974129953102</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>0.01</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U43" s="2">
+        <v>5792.8263793046999</v>
+      </c>
+      <c r="V43" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W43" s="2">
+        <v>6349.2435507440496</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0.01</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>5631.5959622557602</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>4500</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>11964.700874214501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>0.5</v>
+      </c>
+      <c r="B44">
+        <v>0.01</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F44" s="2">
+        <v>450</v>
+      </c>
+      <c r="G44" s="2">
+        <v>413.49705862302397</v>
+      </c>
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+      <c r="J44">
+        <v>0.01</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2030.8082203409599</v>
+      </c>
+      <c r="M44" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O44" s="2">
+        <v>2659.0974129953102</v>
+      </c>
+      <c r="Q44">
+        <v>0.5</v>
+      </c>
+      <c r="R44">
+        <v>0.01</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U44" s="2">
+        <v>5792.8263793046999</v>
+      </c>
+      <c r="V44" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W44" s="2">
+        <v>6349.2435507440496</v>
+      </c>
+      <c r="Y44">
+        <v>0.5</v>
+      </c>
+      <c r="Z44">
+        <v>0.01</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>5631.5959622557602</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>3913.5587708798998</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>11964.700874214501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>0.2</v>
+      </c>
+      <c r="B45">
+        <v>0.01</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F45" s="2">
+        <v>450</v>
+      </c>
+      <c r="G45" s="2">
+        <v>413.49705862302397</v>
+      </c>
+      <c r="I45">
+        <v>0.2</v>
+      </c>
+      <c r="J45">
+        <v>0.01</v>
+      </c>
+      <c r="K45" s="2">
+        <v>300</v>
+      </c>
+      <c r="L45" s="2">
+        <v>2030.8082203409599</v>
+      </c>
+      <c r="M45" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1123.262979047</v>
+      </c>
+      <c r="O45" s="2">
+        <v>2659.0974129953102</v>
+      </c>
+      <c r="Q45">
+        <v>0.2</v>
+      </c>
+      <c r="R45">
+        <v>0.01</v>
+      </c>
+      <c r="S45" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T45" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U45" s="2">
+        <v>5792.8263793046999</v>
+      </c>
+      <c r="V45" s="2">
+        <v>1953.64779008563</v>
+      </c>
+      <c r="W45" s="2">
+        <v>6349.2435507440496</v>
+      </c>
+      <c r="Y45">
+        <v>0.2</v>
+      </c>
+      <c r="Z45">
+        <v>0.01</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>5631.5959622557602</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>3463.5587708798998</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>11964.700874214501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>0.1</v>
+      </c>
+      <c r="B46">
+        <v>0.01</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="2">
+        <v>450</v>
+      </c>
+      <c r="G46" s="2">
+        <v>413.49705862302397</v>
+      </c>
+      <c r="I46">
+        <v>0.1</v>
+      </c>
+      <c r="J46">
+        <v>0.01</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="2">
+        <v>2030.8082203409599</v>
+      </c>
+      <c r="M46" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1030.00646987357</v>
+      </c>
+      <c r="O46" s="2">
+        <v>2659.0974129953102</v>
+      </c>
+      <c r="Q46">
+        <v>0.1</v>
+      </c>
+      <c r="R46">
+        <v>0.01</v>
+      </c>
+      <c r="S46" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T46" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U46" s="2">
+        <v>5792.8263793046999</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1803.64779008563</v>
+      </c>
+      <c r="W46" s="2">
+        <v>6349.2435507440496</v>
+      </c>
+      <c r="Y46">
+        <v>0.1</v>
+      </c>
+      <c r="Z46">
+        <v>0.01</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>5631.5959622557602</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>3313.5587708798998</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>11964.700874214501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>0.05</v>
+      </c>
+      <c r="B47">
+        <v>0.01</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1350</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F47" s="2">
+        <v>429.84260510932899</v>
+      </c>
+      <c r="G47" s="2">
+        <v>413.49705862302397</v>
+      </c>
+      <c r="I47">
+        <v>0.05</v>
+      </c>
+      <c r="J47">
+        <v>0.01</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L47" s="2">
+        <v>2030.8082203409599</v>
+      </c>
+      <c r="M47" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N47" s="2">
+        <v>955.00646987357698</v>
+      </c>
+      <c r="O47" s="2">
+        <v>2659.0974129953102</v>
+      </c>
+      <c r="Q47">
+        <v>0.05</v>
+      </c>
+      <c r="R47">
+        <v>0.01</v>
+      </c>
+      <c r="S47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T47" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U47" s="2">
+        <v>5792.8263793046999</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1728.64779008563</v>
+      </c>
+      <c r="W47" s="2">
+        <v>6349.2435507440496</v>
+      </c>
+      <c r="Y47">
+        <v>0.05</v>
+      </c>
+      <c r="Z47">
+        <v>0.01</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>5631.5959622557602</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>3238.5587708798998</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>11964.700874214501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>0.01</v>
+      </c>
+      <c r="B48">
+        <v>0.01</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F48" s="2">
+        <v>370.994719951229</v>
+      </c>
+      <c r="G48" s="2">
+        <v>413.49705862302397</v>
+      </c>
+      <c r="I48">
+        <v>0.01</v>
+      </c>
+      <c r="J48">
+        <v>0.01</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L48" s="2">
+        <v>2030.8082203409599</v>
+      </c>
+      <c r="M48" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N48" s="2">
+        <v>895.00646987357698</v>
+      </c>
+      <c r="O48" s="2">
+        <v>2659.0974129953102</v>
+      </c>
+      <c r="Q48">
+        <v>0.01</v>
+      </c>
+      <c r="R48">
+        <v>0.01</v>
+      </c>
+      <c r="S48" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T48" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U48" s="2">
+        <v>5792.8263793046999</v>
+      </c>
+      <c r="V48" s="2">
+        <v>1668.64779008563</v>
+      </c>
+      <c r="W48" s="2">
+        <v>6349.2435507440496</v>
+      </c>
+      <c r="Y48">
+        <v>0.01</v>
+      </c>
+      <c r="Z48">
+        <v>0.01</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>5631.5959622557602</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>3178.5587708798998</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>11964.700874214501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B49">
+        <v>0.01</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F49" s="2">
+        <v>363.494719951229</v>
+      </c>
+      <c r="G49" s="2">
+        <v>413.49705862302397</v>
+      </c>
+      <c r="I49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J49">
+        <v>0.01</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L49" s="2">
+        <v>2030.8082203409599</v>
+      </c>
+      <c r="M49" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N49" s="2">
+        <v>887.50646987357698</v>
+      </c>
+      <c r="O49" s="2">
+        <v>2659.0974129953102</v>
+      </c>
+      <c r="Q49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R49">
+        <v>0.01</v>
+      </c>
+      <c r="S49" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T49" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U49" s="2">
+        <v>5792.8263793046999</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1661.14779008563</v>
+      </c>
+      <c r="W49" s="2">
+        <v>6349.2435507440496</v>
+      </c>
+      <c r="Y49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z49">
+        <v>0.01</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>5631.5959622557602</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>3171.0587708798998</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>11964.700874214501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>1E-3</v>
+      </c>
+      <c r="B50">
+        <v>0.01</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F50" s="2">
+        <v>357.494719951229</v>
+      </c>
+      <c r="G50" s="2">
+        <v>413.49705862302397</v>
+      </c>
+      <c r="I50">
+        <v>1E-3</v>
+      </c>
+      <c r="J50">
+        <v>0.01</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L50" s="2">
+        <v>2030.8082203409599</v>
+      </c>
+      <c r="M50" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N50" s="2">
+        <v>881.50646987357698</v>
+      </c>
+      <c r="O50" s="2">
+        <v>2659.0974129953102</v>
+      </c>
+      <c r="Q50">
+        <v>1E-3</v>
+      </c>
+      <c r="R50">
+        <v>0.01</v>
+      </c>
+      <c r="S50" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T50" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U50" s="2">
+        <v>5792.8263793046999</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1655.14779008563</v>
+      </c>
+      <c r="W50" s="2">
+        <v>6349.2435507440496</v>
+      </c>
+      <c r="Y50">
+        <v>1E-3</v>
+      </c>
+      <c r="Z50">
+        <v>0.01</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>5631.5959622557602</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>3165.0587708798998</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>11964.700874214501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2">
+        <v>450</v>
+      </c>
+      <c r="G51" s="2">
+        <v>405.99705862302397</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M51" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N51" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O51" s="2">
+        <v>2644.0974129953102</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U51" s="2">
+        <v>5782.9940692763103</v>
+      </c>
+      <c r="V51" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W51" s="2">
+        <v>6326.8693182227598</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>5626.6798072415704</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>4500</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>11942.3266416932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F52" s="2">
+        <v>450</v>
+      </c>
+      <c r="G52" s="2">
+        <v>405.99705862302397</v>
+      </c>
+      <c r="I52">
+        <v>0.5</v>
+      </c>
+      <c r="J52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M52" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N52" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O52" s="2">
+        <v>2644.0974129953102</v>
+      </c>
+      <c r="Q52">
+        <v>0.5</v>
+      </c>
+      <c r="R52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U52" s="2">
+        <v>5782.9940692763103</v>
+      </c>
+      <c r="V52" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W52" s="2">
+        <v>6326.8693182227598</v>
+      </c>
+      <c r="Y52">
+        <v>0.5</v>
+      </c>
+      <c r="Z52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>5626.6798072415704</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>3913.5587708798998</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>11942.3266416932</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>0.2</v>
+      </c>
+      <c r="B53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E53" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F53" s="2">
+        <v>450</v>
+      </c>
+      <c r="G53" s="2">
+        <v>405.99705862302397</v>
+      </c>
+      <c r="I53">
+        <v>0.2</v>
+      </c>
+      <c r="J53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K53" s="2">
+        <v>300</v>
+      </c>
+      <c r="L53" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M53" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N53" s="2">
+        <v>1123.262979047</v>
+      </c>
+      <c r="O53" s="2">
+        <v>2644.0974129953102</v>
+      </c>
+      <c r="Q53">
+        <v>0.2</v>
+      </c>
+      <c r="R53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S53" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T53" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U53" s="2">
+        <v>5782.9940692763103</v>
+      </c>
+      <c r="V53" s="2">
+        <v>1953.64779008563</v>
+      </c>
+      <c r="W53" s="2">
+        <v>6326.8693182227598</v>
+      </c>
+      <c r="Y53">
+        <v>0.2</v>
+      </c>
+      <c r="Z53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>5626.6798072415704</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>3463.5587708798998</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>11942.3266416932</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>0.1</v>
+      </c>
+      <c r="B54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F54" s="2">
+        <v>450</v>
+      </c>
+      <c r="G54" s="2">
+        <v>405.99705862302397</v>
+      </c>
+      <c r="I54">
+        <v>0.1</v>
+      </c>
+      <c r="J54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M54" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N54" s="2">
+        <v>1030.00646987357</v>
+      </c>
+      <c r="O54" s="2">
+        <v>2644.0974129953102</v>
+      </c>
+      <c r="Q54">
+        <v>0.1</v>
+      </c>
+      <c r="R54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S54" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T54" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U54" s="2">
+        <v>5782.9940692763103</v>
+      </c>
+      <c r="V54" s="2">
+        <v>1803.64779008563</v>
+      </c>
+      <c r="W54" s="2">
+        <v>6326.8693182227598</v>
+      </c>
+      <c r="Y54">
+        <v>0.1</v>
+      </c>
+      <c r="Z54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>5626.6798072415704</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>3313.5587708798998</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>11942.3266416932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>0.05</v>
+      </c>
+      <c r="B55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1350</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F55" s="2">
+        <v>429.84260510932899</v>
+      </c>
+      <c r="G55" s="2">
+        <v>405.99705862302397</v>
+      </c>
+      <c r="I55">
+        <v>0.05</v>
+      </c>
+      <c r="J55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N55" s="2">
+        <v>955.00646987357698</v>
+      </c>
+      <c r="O55" s="2">
+        <v>2644.0974129953102</v>
+      </c>
+      <c r="Q55">
+        <v>0.05</v>
+      </c>
+      <c r="R55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S55" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T55" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U55" s="2">
+        <v>5782.9940692763103</v>
+      </c>
+      <c r="V55" s="2">
+        <v>1728.64779008563</v>
+      </c>
+      <c r="W55" s="2">
+        <v>6326.8693182227598</v>
+      </c>
+      <c r="Y55">
+        <v>0.05</v>
+      </c>
+      <c r="Z55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>5626.6798072415704</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>3238.5587708798998</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>11942.3266416932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>0.01</v>
+      </c>
+      <c r="B56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E56" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F56" s="2">
+        <v>370.994719951229</v>
+      </c>
+      <c r="G56" s="2">
+        <v>405.99705862302397</v>
+      </c>
+      <c r="I56">
+        <v>0.01</v>
+      </c>
+      <c r="J56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L56" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M56" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N56" s="2">
+        <v>895.00646987357698</v>
+      </c>
+      <c r="O56" s="2">
+        <v>2644.0974129953102</v>
+      </c>
+      <c r="Q56">
+        <v>0.01</v>
+      </c>
+      <c r="R56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S56" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T56" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U56" s="2">
+        <v>5782.9940692763103</v>
+      </c>
+      <c r="V56" s="2">
+        <v>1668.64779008563</v>
+      </c>
+      <c r="W56" s="2">
+        <v>6326.8693182227598</v>
+      </c>
+      <c r="Y56">
+        <v>0.01</v>
+      </c>
+      <c r="Z56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>5626.6798072415704</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>3178.5587708798998</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>11942.3266416932</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F57" s="2">
+        <v>363.494719951229</v>
+      </c>
+      <c r="G57" s="2">
+        <v>405.99705862302397</v>
+      </c>
+      <c r="I57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M57" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N57" s="2">
+        <v>887.50646987357698</v>
+      </c>
+      <c r="O57" s="2">
+        <v>2644.0974129953102</v>
+      </c>
+      <c r="Q57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T57" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U57" s="2">
+        <v>5782.9940692763103</v>
+      </c>
+      <c r="V57" s="2">
+        <v>1661.14779008563</v>
+      </c>
+      <c r="W57" s="2">
+        <v>6326.8693182227598</v>
+      </c>
+      <c r="Y57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>5626.6798072415704</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>3171.0587708798998</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>11942.3266416932</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>1E-3</v>
+      </c>
+      <c r="B58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F58" s="2">
+        <v>357.494719951229</v>
+      </c>
+      <c r="G58" s="2">
+        <v>405.99705862302397</v>
+      </c>
+      <c r="I58">
+        <v>1E-3</v>
+      </c>
+      <c r="J58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M58" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N58" s="2">
+        <v>881.50646987357698</v>
+      </c>
+      <c r="O58" s="2">
+        <v>2644.0974129953102</v>
+      </c>
+      <c r="Q58">
+        <v>1E-3</v>
+      </c>
+      <c r="R58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T58" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U58" s="2">
+        <v>5782.9940692763103</v>
+      </c>
+      <c r="V58" s="2">
+        <v>1655.14779008563</v>
+      </c>
+      <c r="W58" s="2">
+        <v>6326.8693182227598</v>
+      </c>
+      <c r="Y58">
+        <v>1E-3</v>
+      </c>
+      <c r="Z58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>5626.6798072415704</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>3165.0587708798998</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>11942.3266416932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>1E-3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F59" s="2">
+        <v>450</v>
+      </c>
+      <c r="G59" s="2">
+        <v>399.99705862302397</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1E-3</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M59" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O59" s="2">
+        <v>2632.0974129953102</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1E-3</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U59" s="2">
+        <v>5775.1282212535998</v>
+      </c>
+      <c r="V59" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W59" s="2">
+        <v>6308.9699322057204</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1E-3</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>5622.7468832302102</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>4500</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>11924.427255676201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>0.5</v>
+      </c>
+      <c r="B60">
+        <v>1E-3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="2">
+        <v>450</v>
+      </c>
+      <c r="G60" s="2">
+        <v>399.99705862302397</v>
+      </c>
+      <c r="I60">
+        <v>0.5</v>
+      </c>
+      <c r="J60">
+        <v>1E-3</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M60" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N60" s="2">
+        <v>1125</v>
+      </c>
+      <c r="O60" s="2">
+        <v>2632.0974129953102</v>
+      </c>
+      <c r="Q60">
+        <v>0.5</v>
+      </c>
+      <c r="R60">
+        <v>1E-3</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U60" s="2">
+        <v>5775.1282212535998</v>
+      </c>
+      <c r="V60" s="2">
+        <v>2250</v>
+      </c>
+      <c r="W60" s="2">
+        <v>6308.9699322057204</v>
+      </c>
+      <c r="Y60">
+        <v>0.5</v>
+      </c>
+      <c r="Z60">
+        <v>1E-3</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>5622.7468832302102</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>3913.5587708798998</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>11924.427255676201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>0.2</v>
+      </c>
+      <c r="B61">
+        <v>1E-3</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F61" s="2">
+        <v>450</v>
+      </c>
+      <c r="G61" s="2">
+        <v>399.99705862302397</v>
+      </c>
+      <c r="I61">
+        <v>0.2</v>
+      </c>
+      <c r="J61">
+        <v>1E-3</v>
+      </c>
+      <c r="K61" s="2">
+        <v>300</v>
+      </c>
+      <c r="L61" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M61" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N61" s="2">
+        <v>1123.262979047</v>
+      </c>
+      <c r="O61" s="2">
+        <v>2632.0974129953102</v>
+      </c>
+      <c r="Q61">
+        <v>0.2</v>
+      </c>
+      <c r="R61">
+        <v>1E-3</v>
+      </c>
+      <c r="S61" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T61" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U61" s="2">
+        <v>5775.1282212535998</v>
+      </c>
+      <c r="V61" s="2">
+        <v>1953.64779008563</v>
+      </c>
+      <c r="W61" s="2">
+        <v>6308.9699322057204</v>
+      </c>
+      <c r="Y61">
+        <v>0.2</v>
+      </c>
+      <c r="Z61">
+        <v>1E-3</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>5622.7468832302102</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>3463.5587708798998</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>11924.427255676201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>0.1</v>
+      </c>
+      <c r="B62">
+        <v>1E-3</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F62" s="2">
+        <v>450</v>
+      </c>
+      <c r="G62" s="2">
+        <v>399.99705862302397</v>
+      </c>
+      <c r="I62">
+        <v>0.1</v>
+      </c>
+      <c r="J62">
+        <v>1E-3</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L62" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M62" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N62" s="2">
+        <v>1030.00646987357</v>
+      </c>
+      <c r="O62" s="2">
+        <v>2632.0974129953102</v>
+      </c>
+      <c r="Q62">
+        <v>0.1</v>
+      </c>
+      <c r="R62">
+        <v>1E-3</v>
+      </c>
+      <c r="S62" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T62" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U62" s="2">
+        <v>5775.1282212535998</v>
+      </c>
+      <c r="V62" s="2">
+        <v>1803.64779008563</v>
+      </c>
+      <c r="W62" s="2">
+        <v>6308.9699322057204</v>
+      </c>
+      <c r="Y62">
+        <v>0.1</v>
+      </c>
+      <c r="Z62">
+        <v>1E-3</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>5622.7468832302102</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>3313.5587708798998</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>11924.427255676201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>0.05</v>
+      </c>
+      <c r="B63">
+        <v>1E-3</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1350</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E63" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F63" s="2">
+        <v>429.84260510932899</v>
+      </c>
+      <c r="G63" s="2">
+        <v>399.99705862302397</v>
+      </c>
+      <c r="I63">
+        <v>0.05</v>
+      </c>
+      <c r="J63">
+        <v>1E-3</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L63" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M63" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N63" s="2">
+        <v>955.00646987357698</v>
+      </c>
+      <c r="O63" s="2">
+        <v>2632.0974129953102</v>
+      </c>
+      <c r="Q63">
+        <v>0.05</v>
+      </c>
+      <c r="R63">
+        <v>1E-3</v>
+      </c>
+      <c r="S63" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T63" s="2">
+        <v>4761.3628772485399</v>
+      </c>
+      <c r="U63" s="2">
+        <v>5775.1282212535998</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1728.64779008563</v>
+      </c>
+      <c r="W63" s="2">
+        <v>6308.9699322057204</v>
+      </c>
+      <c r="Y63">
+        <v>0.05</v>
+      </c>
+      <c r="Z63">
+        <v>1E-3</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>5622.7468832302102</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>3238.5587708798998</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>11924.427255676201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>0.01</v>
+      </c>
+      <c r="B64">
+        <v>1E-3</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E64" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F64" s="2">
+        <v>370.994719951229</v>
+      </c>
+      <c r="G64" s="2">
+        <v>399.99705862302397</v>
+      </c>
+      <c r="I64">
+        <v>0.01</v>
+      </c>
+      <c r="J64">
+        <v>1E-3</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L64" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M64" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N64" s="2">
+        <v>895.00646987357698</v>
+      </c>
+      <c r="O64" s="2">
+        <v>2632.0974129953102</v>
+      </c>
+      <c r="Q64">
+        <v>0.01</v>
+      </c>
+      <c r="R64">
+        <v>1E-3</v>
+      </c>
+      <c r="S64" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T64" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U64" s="2">
+        <v>5775.1282212535998</v>
+      </c>
+      <c r="V64" s="2">
+        <v>1668.64779008563</v>
+      </c>
+      <c r="W64" s="2">
+        <v>6308.9699322057204</v>
+      </c>
+      <c r="Y64">
+        <v>0.01</v>
+      </c>
+      <c r="Z64">
+        <v>1E-3</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>5622.7468832302102</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>3178.5587708798998</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>11924.427255676201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B65">
+        <v>1E-3</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E65" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F65" s="2">
+        <v>363.494719951229</v>
+      </c>
+      <c r="G65" s="2">
+        <v>399.99705862302397</v>
+      </c>
+      <c r="I65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J65">
+        <v>1E-3</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L65" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M65" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N65" s="2">
+        <v>887.50646987357698</v>
+      </c>
+      <c r="O65" s="2">
+        <v>2632.0974129953102</v>
+      </c>
+      <c r="Q65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R65">
+        <v>1E-3</v>
+      </c>
+      <c r="S65" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T65" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U65" s="2">
+        <v>5775.1282212535998</v>
+      </c>
+      <c r="V65" s="2">
+        <v>1661.14779008563</v>
+      </c>
+      <c r="W65" s="2">
+        <v>6308.9699322057204</v>
+      </c>
+      <c r="Y65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z65">
+        <v>1E-3</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>5622.7468832302102</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>3171.0587708798998</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>11924.427255676201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>1E-3</v>
+      </c>
+      <c r="B66">
+        <v>1E-3</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F66" s="2">
+        <v>357.494719951229</v>
+      </c>
+      <c r="G66" s="2">
+        <v>399.99705862302397</v>
+      </c>
+      <c r="I66">
+        <v>1E-3</v>
+      </c>
+      <c r="J66">
+        <v>1E-3</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L66" s="2">
+        <v>2116.1565757646299</v>
+      </c>
+      <c r="M66" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N66" s="2">
+        <v>881.50646987357698</v>
+      </c>
+      <c r="O66" s="2">
+        <v>2632.0974129953102</v>
+      </c>
+      <c r="Q66">
+        <v>1E-3</v>
+      </c>
+      <c r="R66">
+        <v>1E-3</v>
+      </c>
+      <c r="S66" s="2">
+        <v>1500</v>
+      </c>
+      <c r="T66" s="2">
+        <v>4761.3628772485299</v>
+      </c>
+      <c r="U66" s="2">
+        <v>5775.1282212535998</v>
+      </c>
+      <c r="V66" s="2">
+        <v>1655.14779008563</v>
+      </c>
+      <c r="W66" s="2">
+        <v>6308.9699322057204</v>
+      </c>
+      <c r="Y66">
+        <v>1E-3</v>
+      </c>
+      <c r="Z66">
+        <v>1E-3</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>6380.6814386242604</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>5622.7468832302102</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>3165.0587708798998</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>11924.427255676201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AE1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/result_summary_epsilon_new_support.xlsx
+++ b/results/result_summary_epsilon_new_support.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\_Work\Research\00_Workshop\data_valuation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5BFECD-4D68-4184-8C4A-AC8110778F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B698FE-F2D2-4066-8981-A0A41E659179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{FFE2B131-66A4-4E63-8C13-A75AF38B9E2B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{FFE2B131-66A4-4E63-8C13-A75AF38B9E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -165,16 +165,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -602,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1575851-825A-4EE2-84A7-225BA7121F9B}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M20" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -612,42 +609,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="Y1" s="5" t="s">
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -742,7 +739,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="2">
@@ -763,19 +760,19 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N3" s="2">
         <v>1125</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="2">
         <v>3375</v>
       </c>
       <c r="Q3">
@@ -784,7 +781,7 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" s="2">
@@ -805,7 +802,7 @@
       <c r="Z3">
         <v>1</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" s="2">
@@ -828,7 +825,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="2">
@@ -849,19 +846,19 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N4" s="2">
         <v>1125</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2">
         <v>3375</v>
       </c>
       <c r="Q4">
@@ -870,7 +867,7 @@
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" s="2">
@@ -891,7 +888,7 @@
       <c r="Z4">
         <v>1</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4">
         <v>1500</v>
       </c>
       <c r="AB4" s="2">
@@ -914,7 +911,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="2">
@@ -935,19 +932,19 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="K5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N5" s="2">
         <v>1050</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <v>3375</v>
       </c>
       <c r="Q5">
@@ -956,7 +953,7 @@
       <c r="R5">
         <v>1</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>1500</v>
       </c>
       <c r="T5" s="2">
@@ -977,7 +974,7 @@
       <c r="Z5">
         <v>1</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5">
         <v>1500</v>
       </c>
       <c r="AB5" s="2">
@@ -1000,7 +997,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="2">
@@ -1021,19 +1018,19 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="K6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N6" s="2">
         <v>900</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2">
         <v>3375</v>
       </c>
       <c r="Q6">
@@ -1042,7 +1039,7 @@
       <c r="R6">
         <v>1</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6">
         <v>1500</v>
       </c>
       <c r="T6" s="2">
@@ -1063,7 +1060,7 @@
       <c r="Z6">
         <v>1</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6">
         <v>1500</v>
       </c>
       <c r="AB6" s="2">
@@ -1086,7 +1083,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>1500</v>
       </c>
       <c r="D7" s="2">
@@ -1107,19 +1104,19 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="K7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N7" s="2">
         <v>825</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <v>3375</v>
       </c>
       <c r="Q7">
@@ -1128,7 +1125,7 @@
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7">
         <v>1500</v>
       </c>
       <c r="T7" s="2">
@@ -1149,7 +1146,7 @@
       <c r="Z7">
         <v>1</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7">
         <v>1500</v>
       </c>
       <c r="AB7" s="2">
@@ -1172,7 +1169,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>1500</v>
       </c>
       <c r="D8" s="2">
@@ -1193,19 +1190,19 @@
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="K8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N8" s="2">
         <v>765</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <v>3375</v>
       </c>
       <c r="Q8">
@@ -1214,7 +1211,7 @@
       <c r="R8">
         <v>1</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8">
         <v>1500</v>
       </c>
       <c r="T8" s="2">
@@ -1235,7 +1232,7 @@
       <c r="Z8">
         <v>1</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8">
         <v>1500</v>
       </c>
       <c r="AB8" s="2">
@@ -1258,7 +1255,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>1500</v>
       </c>
       <c r="D9" s="2">
@@ -1279,19 +1276,19 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="K9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N9" s="2">
         <v>757.5</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <v>3375</v>
       </c>
       <c r="Q9">
@@ -1300,7 +1297,7 @@
       <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9">
         <v>1500</v>
       </c>
       <c r="T9" s="2">
@@ -1321,7 +1318,7 @@
       <c r="Z9">
         <v>1</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9">
         <v>1500</v>
       </c>
       <c r="AB9" s="2">
@@ -1344,7 +1341,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>1500</v>
       </c>
       <c r="D10" s="2">
@@ -1365,19 +1362,19 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="K10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N10" s="2">
         <v>751.5</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <v>3375</v>
       </c>
       <c r="Q10">
@@ -1386,7 +1383,7 @@
       <c r="R10">
         <v>1</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10">
         <v>1500</v>
       </c>
       <c r="T10" s="2">
@@ -1407,7 +1404,7 @@
       <c r="Z10">
         <v>1</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10">
         <v>1500</v>
       </c>
       <c r="AB10" s="2">
@@ -1430,7 +1427,7 @@
       <c r="B11">
         <v>0.5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="2">
@@ -1451,19 +1448,19 @@
       <c r="J11">
         <v>0.5</v>
       </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N11" s="2">
         <v>1125</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <v>3375</v>
       </c>
       <c r="Q11">
@@ -1472,7 +1469,7 @@
       <c r="R11">
         <v>0.5</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" s="2">
@@ -1493,7 +1490,7 @@
       <c r="Z11">
         <v>0.5</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" s="2">
@@ -1516,7 +1513,7 @@
       <c r="B12">
         <v>0.5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="2">
@@ -1537,19 +1534,19 @@
       <c r="J12">
         <v>0.5</v>
       </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N12" s="2">
         <v>1125</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <v>3375</v>
       </c>
       <c r="Q12">
@@ -1558,7 +1555,7 @@
       <c r="R12">
         <v>0.5</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" s="2">
@@ -1579,7 +1576,7 @@
       <c r="Z12">
         <v>0.5</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12">
         <v>1500</v>
       </c>
       <c r="AB12" s="2">
@@ -1602,7 +1599,7 @@
       <c r="B13">
         <v>0.5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="2">
@@ -1623,19 +1620,19 @@
       <c r="J13">
         <v>0.5</v>
       </c>
-      <c r="K13" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="K13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N13" s="2">
         <v>1050</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <v>3375</v>
       </c>
       <c r="Q13">
@@ -1644,7 +1641,7 @@
       <c r="R13">
         <v>0.5</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13">
         <v>1500</v>
       </c>
       <c r="T13" s="2">
@@ -1665,7 +1662,7 @@
       <c r="Z13">
         <v>0.5</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13">
         <v>1500</v>
       </c>
       <c r="AB13" s="2">
@@ -1688,7 +1685,7 @@
       <c r="B14">
         <v>0.5</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="2">
@@ -1709,19 +1706,19 @@
       <c r="J14">
         <v>0.5</v>
       </c>
-      <c r="K14" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="K14" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N14" s="2">
         <v>900</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <v>3375</v>
       </c>
       <c r="Q14">
@@ -1730,7 +1727,7 @@
       <c r="R14">
         <v>0.5</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14">
         <v>1500</v>
       </c>
       <c r="T14" s="2">
@@ -1751,7 +1748,7 @@
       <c r="Z14">
         <v>0.5</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14">
         <v>1500</v>
       </c>
       <c r="AB14" s="2">
@@ -1774,7 +1771,7 @@
       <c r="B15">
         <v>0.5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>1500</v>
       </c>
       <c r="D15" s="2">
@@ -1795,19 +1792,19 @@
       <c r="J15">
         <v>0.5</v>
       </c>
-      <c r="K15" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="K15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N15" s="2">
         <v>825</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <v>3375</v>
       </c>
       <c r="Q15">
@@ -1816,7 +1813,7 @@
       <c r="R15">
         <v>0.5</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15">
         <v>1500</v>
       </c>
       <c r="T15" s="2">
@@ -1837,7 +1834,7 @@
       <c r="Z15">
         <v>0.5</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15">
         <v>1500</v>
       </c>
       <c r="AB15" s="2">
@@ -1860,7 +1857,7 @@
       <c r="B16">
         <v>0.5</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>1500</v>
       </c>
       <c r="D16" s="2">
@@ -1881,19 +1878,19 @@
       <c r="J16">
         <v>0.5</v>
       </c>
-      <c r="K16" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="K16" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N16" s="2">
         <v>765</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <v>3375</v>
       </c>
       <c r="Q16">
@@ -1902,7 +1899,7 @@
       <c r="R16">
         <v>0.5</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16">
         <v>1500</v>
       </c>
       <c r="T16" s="2">
@@ -1923,7 +1920,7 @@
       <c r="Z16">
         <v>0.5</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AA16">
         <v>1500</v>
       </c>
       <c r="AB16" s="2">
@@ -1946,7 +1943,7 @@
       <c r="B17">
         <v>0.5</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>1500</v>
       </c>
       <c r="D17" s="2">
@@ -1967,19 +1964,19 @@
       <c r="J17">
         <v>0.5</v>
       </c>
-      <c r="K17" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="K17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N17" s="2">
         <v>757.5</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <v>3375</v>
       </c>
       <c r="Q17">
@@ -1988,7 +1985,7 @@
       <c r="R17">
         <v>0.5</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17">
         <v>1500</v>
       </c>
       <c r="T17" s="2">
@@ -2009,7 +2006,7 @@
       <c r="Z17">
         <v>0.5</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17">
         <v>1500</v>
       </c>
       <c r="AB17" s="2">
@@ -2032,7 +2029,7 @@
       <c r="B18">
         <v>0.5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>1500</v>
       </c>
       <c r="D18" s="2">
@@ -2053,19 +2050,19 @@
       <c r="J18">
         <v>0.5</v>
       </c>
-      <c r="K18" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="K18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N18" s="2">
         <v>751.5</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <v>3375</v>
       </c>
       <c r="Q18">
@@ -2074,7 +2071,7 @@
       <c r="R18">
         <v>0.5</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18">
         <v>1500</v>
       </c>
       <c r="T18" s="2">
@@ -2095,7 +2092,7 @@
       <c r="Z18">
         <v>0.5</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA18">
         <v>1500</v>
       </c>
       <c r="AB18" s="2">
@@ -2118,7 +2115,7 @@
       <c r="B19">
         <v>0.2</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" s="2">
@@ -2139,19 +2136,19 @@
       <c r="J19">
         <v>0.2</v>
       </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M19" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N19" s="2">
         <v>1125</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <v>2850</v>
       </c>
       <c r="Q19">
@@ -2160,7 +2157,7 @@
       <c r="R19">
         <v>0.2</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" s="2">
@@ -2181,7 +2178,7 @@
       <c r="Z19">
         <v>0.2</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19" s="2">
@@ -2204,7 +2201,7 @@
       <c r="B20">
         <v>0.2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" s="2">
@@ -2225,19 +2222,19 @@
       <c r="J20">
         <v>0.2</v>
       </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M20" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N20" s="4">
+      <c r="M20" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N20" s="2">
         <v>1125</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="2">
         <v>2850</v>
       </c>
       <c r="Q20">
@@ -2246,7 +2243,7 @@
       <c r="R20">
         <v>0.2</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" s="2">
@@ -2267,7 +2264,7 @@
       <c r="Z20">
         <v>0.2</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20">
         <v>1500</v>
       </c>
       <c r="AB20" s="2">
@@ -2290,7 +2287,7 @@
       <c r="B21">
         <v>0.2</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" s="2">
@@ -2311,19 +2308,19 @@
       <c r="J21">
         <v>0.2</v>
       </c>
-      <c r="K21" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="K21" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L21" s="2">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M21" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="M21" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N21" s="2">
         <v>1050</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="2">
         <v>2850</v>
       </c>
       <c r="Q21">
@@ -2332,7 +2329,7 @@
       <c r="R21">
         <v>0.2</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21">
         <v>1500</v>
       </c>
       <c r="T21" s="2">
@@ -2353,7 +2350,7 @@
       <c r="Z21">
         <v>0.2</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AA21">
         <v>1500</v>
       </c>
       <c r="AB21" s="2">
@@ -2376,7 +2373,7 @@
       <c r="B22">
         <v>0.2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" s="2">
@@ -2397,19 +2394,19 @@
       <c r="J22">
         <v>0.2</v>
       </c>
-      <c r="K22" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="K22" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="2">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M22" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="M22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N22" s="2">
         <v>900</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="2">
         <v>2850</v>
       </c>
       <c r="Q22">
@@ -2418,7 +2415,7 @@
       <c r="R22">
         <v>0.2</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22">
         <v>1500</v>
       </c>
       <c r="T22" s="2">
@@ -2439,7 +2436,7 @@
       <c r="Z22">
         <v>0.2</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA22">
         <v>1500</v>
       </c>
       <c r="AB22" s="2">
@@ -2462,7 +2459,7 @@
       <c r="B23">
         <v>0.2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>1500</v>
       </c>
       <c r="D23" s="2">
@@ -2483,19 +2480,19 @@
       <c r="J23">
         <v>0.2</v>
       </c>
-      <c r="K23" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="K23" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L23" s="2">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M23" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="M23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N23" s="2">
         <v>825</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="2">
         <v>2850</v>
       </c>
       <c r="Q23">
@@ -2504,7 +2501,7 @@
       <c r="R23">
         <v>0.2</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23">
         <v>1500</v>
       </c>
       <c r="T23" s="2">
@@ -2525,7 +2522,7 @@
       <c r="Z23">
         <v>0.2</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AA23">
         <v>1500</v>
       </c>
       <c r="AB23" s="2">
@@ -2548,7 +2545,7 @@
       <c r="B24">
         <v>0.2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>1500</v>
       </c>
       <c r="D24" s="2">
@@ -2569,19 +2566,19 @@
       <c r="J24">
         <v>0.2</v>
       </c>
-      <c r="K24" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="K24" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L24" s="2">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M24" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N24" s="2">
         <v>765</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="2">
         <v>2850</v>
       </c>
       <c r="Q24">
@@ -2590,7 +2587,7 @@
       <c r="R24">
         <v>0.2</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24">
         <v>1500</v>
       </c>
       <c r="T24" s="2">
@@ -2611,7 +2608,7 @@
       <c r="Z24">
         <v>0.2</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AA24">
         <v>1500</v>
       </c>
       <c r="AB24" s="2">
@@ -2634,7 +2631,7 @@
       <c r="B25">
         <v>0.2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>1500</v>
       </c>
       <c r="D25" s="2">
@@ -2655,19 +2652,19 @@
       <c r="J25">
         <v>0.2</v>
       </c>
-      <c r="K25" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L25" s="4">
+      <c r="K25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L25" s="2">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M25" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N25" s="4">
+      <c r="M25" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N25" s="2">
         <v>757.5</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="2">
         <v>2850</v>
       </c>
       <c r="Q25">
@@ -2676,7 +2673,7 @@
       <c r="R25">
         <v>0.2</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25">
         <v>1500</v>
       </c>
       <c r="T25" s="2">
@@ -2697,7 +2694,7 @@
       <c r="Z25">
         <v>0.2</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA25">
         <v>1500</v>
       </c>
       <c r="AB25" s="2">
@@ -2720,7 +2717,7 @@
       <c r="B26">
         <v>0.2</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>1500</v>
       </c>
       <c r="D26" s="2">
@@ -2741,19 +2738,19 @@
       <c r="J26">
         <v>0.2</v>
       </c>
-      <c r="K26" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="K26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L26" s="2">
         <v>1945.4598649172999</v>
       </c>
-      <c r="M26" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="M26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N26" s="2">
         <v>751.5</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="2">
         <v>2850</v>
       </c>
       <c r="Q26">
@@ -2762,7 +2759,7 @@
       <c r="R26">
         <v>0.2</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26">
         <v>1500</v>
       </c>
       <c r="T26" s="2">
@@ -2783,7 +2780,7 @@
       <c r="Z26">
         <v>0.2</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA26">
         <v>1500</v>
       </c>
       <c r="AB26" s="2">
@@ -2806,7 +2803,7 @@
       <c r="B27">
         <v>0.1</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" s="2">
@@ -2827,19 +2824,19 @@
       <c r="J27">
         <v>0.1</v>
       </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4">
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M27" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="M27" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N27" s="2">
         <v>1125</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="2">
         <v>2550</v>
       </c>
       <c r="Q27">
@@ -2848,7 +2845,7 @@
       <c r="R27">
         <v>0.1</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" s="2">
@@ -2869,7 +2866,7 @@
       <c r="Z27">
         <v>0.1</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27" s="2">
@@ -2892,7 +2889,7 @@
       <c r="B28">
         <v>0.1</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" s="2">
@@ -2913,19 +2910,19 @@
       <c r="J28">
         <v>0.1</v>
       </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M28" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="M28" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N28" s="2">
         <v>1125</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="2">
         <v>2550</v>
       </c>
       <c r="Q28">
@@ -2934,7 +2931,7 @@
       <c r="R28">
         <v>0.1</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28">
         <v>0</v>
       </c>
       <c r="T28" s="2">
@@ -2955,7 +2952,7 @@
       <c r="Z28">
         <v>0.1</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA28">
         <v>1500</v>
       </c>
       <c r="AB28" s="2">
@@ -2978,7 +2975,7 @@
       <c r="B29">
         <v>0.1</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" s="2">
@@ -2999,19 +2996,19 @@
       <c r="J29">
         <v>0.1</v>
       </c>
-      <c r="K29" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L29" s="4">
+      <c r="K29" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L29" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M29" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="M29" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N29" s="2">
         <v>1050</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="2">
         <v>2550</v>
       </c>
       <c r="Q29">
@@ -3020,7 +3017,7 @@
       <c r="R29">
         <v>0.1</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29">
         <v>1500</v>
       </c>
       <c r="T29" s="2">
@@ -3041,7 +3038,7 @@
       <c r="Z29">
         <v>0.1</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AA29">
         <v>1500</v>
       </c>
       <c r="AB29" s="2">
@@ -3064,7 +3061,7 @@
       <c r="B30">
         <v>0.1</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" s="2">
@@ -3085,19 +3082,19 @@
       <c r="J30">
         <v>0.1</v>
       </c>
-      <c r="K30" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="K30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L30" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M30" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N30" s="4">
+      <c r="M30" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N30" s="2">
         <v>900</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="2">
         <v>2550</v>
       </c>
       <c r="Q30">
@@ -3106,7 +3103,7 @@
       <c r="R30">
         <v>0.1</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30">
         <v>1500</v>
       </c>
       <c r="T30" s="2">
@@ -3127,7 +3124,7 @@
       <c r="Z30">
         <v>0.1</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AA30">
         <v>1500</v>
       </c>
       <c r="AB30" s="2">
@@ -3150,7 +3147,7 @@
       <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>1500</v>
       </c>
       <c r="D31" s="2">
@@ -3171,19 +3168,19 @@
       <c r="J31">
         <v>0.1</v>
       </c>
-      <c r="K31" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="K31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L31" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M31" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N31" s="4">
+      <c r="M31" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N31" s="2">
         <v>825</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="2">
         <v>2550</v>
       </c>
       <c r="Q31">
@@ -3192,7 +3189,7 @@
       <c r="R31">
         <v>0.1</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31">
         <v>1500</v>
       </c>
       <c r="T31" s="2">
@@ -3213,7 +3210,7 @@
       <c r="Z31">
         <v>0.1</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AA31">
         <v>1500</v>
       </c>
       <c r="AB31" s="2">
@@ -3236,7 +3233,7 @@
       <c r="B32">
         <v>0.1</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>1500</v>
       </c>
       <c r="D32" s="2">
@@ -3257,19 +3254,19 @@
       <c r="J32">
         <v>0.1</v>
       </c>
-      <c r="K32" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="K32" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L32" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M32" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N32" s="4">
+      <c r="M32" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N32" s="2">
         <v>765</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="2">
         <v>2550</v>
       </c>
       <c r="Q32">
@@ -3278,7 +3275,7 @@
       <c r="R32">
         <v>0.1</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32">
         <v>1500</v>
       </c>
       <c r="T32" s="2">
@@ -3299,7 +3296,7 @@
       <c r="Z32">
         <v>0.1</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AA32">
         <v>1500</v>
       </c>
       <c r="AB32" s="2">
@@ -3322,7 +3319,7 @@
       <c r="B33">
         <v>0.1</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>1500</v>
       </c>
       <c r="D33" s="2">
@@ -3343,19 +3340,19 @@
       <c r="J33">
         <v>0.1</v>
       </c>
-      <c r="K33" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="K33" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L33" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M33" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N33" s="4">
+      <c r="M33" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N33" s="2">
         <v>757.5</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="2">
         <v>2550</v>
       </c>
       <c r="Q33">
@@ -3364,7 +3361,7 @@
       <c r="R33">
         <v>0.1</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33">
         <v>1500</v>
       </c>
       <c r="T33" s="2">
@@ -3385,7 +3382,7 @@
       <c r="Z33">
         <v>0.1</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AA33">
         <v>1500</v>
       </c>
       <c r="AB33" s="2">
@@ -3408,7 +3405,7 @@
       <c r="B34">
         <v>0.1</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>1500</v>
       </c>
       <c r="D34" s="2">
@@ -3429,19 +3426,19 @@
       <c r="J34">
         <v>0.1</v>
       </c>
-      <c r="K34" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L34" s="4">
+      <c r="K34" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L34" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M34" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N34" s="4">
+      <c r="M34" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N34" s="2">
         <v>751.5</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="2">
         <v>2550</v>
       </c>
       <c r="Q34">
@@ -3450,7 +3447,7 @@
       <c r="R34">
         <v>0.1</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34">
         <v>1500</v>
       </c>
       <c r="T34" s="2">
@@ -3471,7 +3468,7 @@
       <c r="Z34">
         <v>0.1</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA34">
         <v>1500</v>
       </c>
       <c r="AB34" s="2">
@@ -3494,7 +3491,7 @@
       <c r="B35">
         <v>0.05</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" s="2">
@@ -3515,19 +3512,19 @@
       <c r="J35">
         <v>0.05</v>
       </c>
-      <c r="K35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="4">
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M35" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N35" s="4">
+      <c r="M35" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N35" s="2">
         <v>1125</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="2">
         <v>2400</v>
       </c>
       <c r="Q35">
@@ -3536,7 +3533,7 @@
       <c r="R35">
         <v>0.05</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" s="2">
@@ -3557,7 +3554,7 @@
       <c r="Z35">
         <v>0.05</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AA35">
         <v>0</v>
       </c>
       <c r="AB35" s="2">
@@ -3580,7 +3577,7 @@
       <c r="B36">
         <v>0.05</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" s="2">
@@ -3601,19 +3598,19 @@
       <c r="J36">
         <v>0.05</v>
       </c>
-      <c r="K36" s="4">
-        <v>0</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M36" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N36" s="4">
+      <c r="M36" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N36" s="2">
         <v>1125</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="2">
         <v>2400</v>
       </c>
       <c r="Q36">
@@ -3622,7 +3619,7 @@
       <c r="R36">
         <v>0.05</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36">
         <v>0</v>
       </c>
       <c r="T36" s="2">
@@ -3643,7 +3640,7 @@
       <c r="Z36">
         <v>0.05</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AA36">
         <v>1500</v>
       </c>
       <c r="AB36" s="2">
@@ -3666,7 +3663,7 @@
       <c r="B37">
         <v>0.05</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="2">
@@ -3687,19 +3684,19 @@
       <c r="J37">
         <v>0.05</v>
       </c>
-      <c r="K37" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L37" s="4">
+      <c r="K37" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L37" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M37" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N37" s="4">
+      <c r="M37" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N37" s="2">
         <v>1050</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="2">
         <v>2400</v>
       </c>
       <c r="Q37">
@@ -3708,7 +3705,7 @@
       <c r="R37">
         <v>0.05</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37">
         <v>1500</v>
       </c>
       <c r="T37" s="2">
@@ -3729,7 +3726,7 @@
       <c r="Z37">
         <v>0.05</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AA37">
         <v>1500</v>
       </c>
       <c r="AB37" s="2">
@@ -3752,7 +3749,7 @@
       <c r="B38">
         <v>0.05</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" s="2">
@@ -3773,19 +3770,19 @@
       <c r="J38">
         <v>0.05</v>
       </c>
-      <c r="K38" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L38" s="4">
+      <c r="K38" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L38" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M38" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N38" s="4">
+      <c r="M38" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N38" s="2">
         <v>900</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="2">
         <v>2400</v>
       </c>
       <c r="Q38">
@@ -3794,7 +3791,7 @@
       <c r="R38">
         <v>0.05</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38">
         <v>1500</v>
       </c>
       <c r="T38" s="2">
@@ -3815,7 +3812,7 @@
       <c r="Z38">
         <v>0.05</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AA38">
         <v>1500</v>
       </c>
       <c r="AB38" s="2">
@@ -3838,7 +3835,7 @@
       <c r="B39">
         <v>0.05</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>1500</v>
       </c>
       <c r="D39" s="2">
@@ -3859,19 +3856,19 @@
       <c r="J39">
         <v>0.05</v>
       </c>
-      <c r="K39" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L39" s="4">
+      <c r="K39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L39" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M39" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N39" s="4">
+      <c r="M39" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N39" s="2">
         <v>825</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="2">
         <v>2400</v>
       </c>
       <c r="Q39">
@@ -3880,7 +3877,7 @@
       <c r="R39">
         <v>0.05</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39">
         <v>1500</v>
       </c>
       <c r="T39" s="2">
@@ -3901,7 +3898,7 @@
       <c r="Z39">
         <v>0.05</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AA39">
         <v>1500</v>
       </c>
       <c r="AB39" s="2">
@@ -3924,7 +3921,7 @@
       <c r="B40">
         <v>0.05</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>1500</v>
       </c>
       <c r="D40" s="2">
@@ -3945,19 +3942,19 @@
       <c r="J40">
         <v>0.05</v>
       </c>
-      <c r="K40" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L40" s="4">
+      <c r="K40" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L40" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M40" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N40" s="4">
+      <c r="M40" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N40" s="2">
         <v>765</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="2">
         <v>2400</v>
       </c>
       <c r="Q40">
@@ -3966,7 +3963,7 @@
       <c r="R40">
         <v>0.05</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40">
         <v>1500</v>
       </c>
       <c r="T40" s="2">
@@ -3987,7 +3984,7 @@
       <c r="Z40">
         <v>0.05</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AA40">
         <v>1500</v>
       </c>
       <c r="AB40" s="2">
@@ -4010,7 +4007,7 @@
       <c r="B41">
         <v>0.05</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>1500</v>
       </c>
       <c r="D41" s="2">
@@ -4031,19 +4028,19 @@
       <c r="J41">
         <v>0.05</v>
       </c>
-      <c r="K41" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L41" s="4">
+      <c r="K41" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M41" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N41" s="4">
+      <c r="M41" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N41" s="2">
         <v>757.5</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="2">
         <v>2400</v>
       </c>
       <c r="Q41">
@@ -4052,7 +4049,7 @@
       <c r="R41">
         <v>0.05</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41">
         <v>1500</v>
       </c>
       <c r="T41" s="2">
@@ -4073,7 +4070,7 @@
       <c r="Z41">
         <v>0.05</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AA41">
         <v>1500</v>
       </c>
       <c r="AB41" s="2">
@@ -4096,7 +4093,7 @@
       <c r="B42">
         <v>0.05</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>1500</v>
       </c>
       <c r="D42" s="2">
@@ -4117,19 +4114,19 @@
       <c r="J42">
         <v>0.05</v>
       </c>
-      <c r="K42" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L42" s="4">
+      <c r="K42" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L42" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M42" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N42" s="4">
+      <c r="M42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N42" s="2">
         <v>751.5</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="2">
         <v>2400</v>
       </c>
       <c r="Q42">
@@ -4138,7 +4135,7 @@
       <c r="R42">
         <v>0.05</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42">
         <v>1500</v>
       </c>
       <c r="T42" s="2">
@@ -4159,7 +4156,7 @@
       <c r="Z42">
         <v>0.05</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AA42">
         <v>1500</v>
       </c>
       <c r="AB42" s="2">
@@ -4182,7 +4179,7 @@
       <c r="B43">
         <v>0.01</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="2">
@@ -4203,19 +4200,19 @@
       <c r="J43">
         <v>0.01</v>
       </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M43" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N43" s="4">
+      <c r="M43" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N43" s="2">
         <v>1125</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="2">
         <v>2280</v>
       </c>
       <c r="Q43">
@@ -4224,7 +4221,7 @@
       <c r="R43">
         <v>0.01</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43">
         <v>0</v>
       </c>
       <c r="T43" s="2">
@@ -4245,7 +4242,7 @@
       <c r="Z43">
         <v>0.01</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AA43">
         <v>0</v>
       </c>
       <c r="AB43" s="2">
@@ -4268,7 +4265,7 @@
       <c r="B44">
         <v>0.01</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" s="2">
@@ -4289,19 +4286,19 @@
       <c r="J44">
         <v>0.01</v>
       </c>
-      <c r="K44" s="4">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4">
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M44" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N44" s="4">
+      <c r="M44" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N44" s="2">
         <v>1125</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="2">
         <v>2280</v>
       </c>
       <c r="Q44">
@@ -4310,7 +4307,7 @@
       <c r="R44">
         <v>0.01</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44">
         <v>0</v>
       </c>
       <c r="T44" s="2">
@@ -4331,7 +4328,7 @@
       <c r="Z44">
         <v>0.01</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="AA44">
         <v>1500</v>
       </c>
       <c r="AB44" s="2">
@@ -4354,7 +4351,7 @@
       <c r="B45">
         <v>0.01</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" s="2">
@@ -4375,19 +4372,19 @@
       <c r="J45">
         <v>0.01</v>
       </c>
-      <c r="K45" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L45" s="4">
+      <c r="K45" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M45" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N45" s="4">
+      <c r="M45" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N45" s="2">
         <v>1050</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="2">
         <v>2280</v>
       </c>
       <c r="Q45">
@@ -4396,7 +4393,7 @@
       <c r="R45">
         <v>0.01</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45">
         <v>1500</v>
       </c>
       <c r="T45" s="2">
@@ -4417,7 +4414,7 @@
       <c r="Z45">
         <v>0.01</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AA45">
         <v>1500</v>
       </c>
       <c r="AB45" s="2">
@@ -4440,7 +4437,7 @@
       <c r="B46">
         <v>0.01</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" s="2">
@@ -4461,19 +4458,19 @@
       <c r="J46">
         <v>0.01</v>
       </c>
-      <c r="K46" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L46" s="4">
+      <c r="K46" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M46" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N46" s="4">
+      <c r="M46" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N46" s="2">
         <v>900</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="2">
         <v>2280</v>
       </c>
       <c r="Q46">
@@ -4482,7 +4479,7 @@
       <c r="R46">
         <v>0.01</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46">
         <v>1500</v>
       </c>
       <c r="T46" s="2">
@@ -4503,7 +4500,7 @@
       <c r="Z46">
         <v>0.01</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AA46">
         <v>1500</v>
       </c>
       <c r="AB46" s="2">
@@ -4526,7 +4523,7 @@
       <c r="B47">
         <v>0.01</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>1500</v>
       </c>
       <c r="D47" s="2">
@@ -4547,19 +4544,19 @@
       <c r="J47">
         <v>0.01</v>
       </c>
-      <c r="K47" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L47" s="4">
+      <c r="K47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L47" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M47" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N47" s="4">
+      <c r="M47" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N47" s="2">
         <v>825</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="2">
         <v>2280</v>
       </c>
       <c r="Q47">
@@ -4568,7 +4565,7 @@
       <c r="R47">
         <v>0.01</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47">
         <v>1500</v>
       </c>
       <c r="T47" s="2">
@@ -4589,7 +4586,7 @@
       <c r="Z47">
         <v>0.01</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AA47">
         <v>1500</v>
       </c>
       <c r="AB47" s="2">
@@ -4612,7 +4609,7 @@
       <c r="B48">
         <v>0.01</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>1500</v>
       </c>
       <c r="D48" s="2">
@@ -4633,19 +4630,19 @@
       <c r="J48">
         <v>0.01</v>
       </c>
-      <c r="K48" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L48" s="4">
+      <c r="K48" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L48" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M48" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N48" s="4">
+      <c r="M48" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N48" s="2">
         <v>765</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="2">
         <v>2280</v>
       </c>
       <c r="Q48">
@@ -4654,7 +4651,7 @@
       <c r="R48">
         <v>0.01</v>
       </c>
-      <c r="S48" s="2">
+      <c r="S48">
         <v>1500</v>
       </c>
       <c r="T48" s="2">
@@ -4675,7 +4672,7 @@
       <c r="Z48">
         <v>0.01</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AA48">
         <v>1500</v>
       </c>
       <c r="AB48" s="2">
@@ -4698,7 +4695,7 @@
       <c r="B49">
         <v>0.01</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>1500</v>
       </c>
       <c r="D49" s="2">
@@ -4719,19 +4716,19 @@
       <c r="J49">
         <v>0.01</v>
       </c>
-      <c r="K49" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L49" s="4">
+      <c r="K49" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L49" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M49" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N49" s="4">
+      <c r="M49" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N49" s="2">
         <v>757.5</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="2">
         <v>2280</v>
       </c>
       <c r="Q49">
@@ -4740,7 +4737,7 @@
       <c r="R49">
         <v>0.01</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49">
         <v>1500</v>
       </c>
       <c r="T49" s="2">
@@ -4761,7 +4758,7 @@
       <c r="Z49">
         <v>0.01</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AA49">
         <v>1500</v>
       </c>
       <c r="AB49" s="2">
@@ -4784,7 +4781,7 @@
       <c r="B50">
         <v>0.01</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>1500</v>
       </c>
       <c r="D50" s="2">
@@ -4805,19 +4802,19 @@
       <c r="J50">
         <v>0.01</v>
       </c>
-      <c r="K50" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L50" s="4">
+      <c r="K50" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L50" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M50" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N50" s="4">
+      <c r="M50" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N50" s="2">
         <v>751.5</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="2">
         <v>2280</v>
       </c>
       <c r="Q50">
@@ -4826,7 +4823,7 @@
       <c r="R50">
         <v>0.01</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50">
         <v>1500</v>
       </c>
       <c r="T50" s="2">
@@ -4847,7 +4844,7 @@
       <c r="Z50">
         <v>0.01</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AA50">
         <v>1500</v>
       </c>
       <c r="AB50" s="2">
@@ -4870,7 +4867,7 @@
       <c r="B51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" s="2">
@@ -4891,19 +4888,19 @@
       <c r="J51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K51" s="4">
-        <v>0</v>
-      </c>
-      <c r="L51" s="4">
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M51" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N51" s="4">
+      <c r="M51" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N51" s="2">
         <v>1125</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="2">
         <v>2265</v>
       </c>
       <c r="Q51">
@@ -4912,7 +4909,7 @@
       <c r="R51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51">
         <v>0</v>
       </c>
       <c r="T51" s="2">
@@ -4933,7 +4930,7 @@
       <c r="Z51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA51" s="2">
+      <c r="AA51">
         <v>0</v>
       </c>
       <c r="AB51" s="2">
@@ -4956,7 +4953,7 @@
       <c r="B52">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>0</v>
       </c>
       <c r="D52" s="2">
@@ -4977,19 +4974,19 @@
       <c r="J52">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K52" s="4">
-        <v>0</v>
-      </c>
-      <c r="L52" s="4">
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M52" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N52" s="4">
+      <c r="M52" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N52" s="2">
         <v>1125</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="2">
         <v>2265</v>
       </c>
       <c r="Q52">
@@ -4998,7 +4995,7 @@
       <c r="R52">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52">
         <v>0</v>
       </c>
       <c r="T52" s="2">
@@ -5019,7 +5016,7 @@
       <c r="Z52">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA52" s="2">
+      <c r="AA52">
         <v>1500</v>
       </c>
       <c r="AB52" s="2">
@@ -5042,7 +5039,7 @@
       <c r="B53">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" s="2">
@@ -5063,19 +5060,19 @@
       <c r="J53">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K53" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L53" s="4">
+      <c r="K53" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L53" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M53" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N53" s="4">
+      <c r="M53" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N53" s="2">
         <v>1050</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="2">
         <v>2265</v>
       </c>
       <c r="Q53">
@@ -5084,7 +5081,7 @@
       <c r="R53">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53">
         <v>1500</v>
       </c>
       <c r="T53" s="2">
@@ -5105,7 +5102,7 @@
       <c r="Z53">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="AA53">
         <v>1500</v>
       </c>
       <c r="AB53" s="2">
@@ -5128,7 +5125,7 @@
       <c r="B54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>0</v>
       </c>
       <c r="D54" s="2">
@@ -5149,19 +5146,19 @@
       <c r="J54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K54" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L54" s="4">
+      <c r="K54" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M54" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N54" s="4">
+      <c r="M54" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N54" s="2">
         <v>900</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="2">
         <v>2265</v>
       </c>
       <c r="Q54">
@@ -5170,7 +5167,7 @@
       <c r="R54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54">
         <v>1500</v>
       </c>
       <c r="T54" s="2">
@@ -5191,7 +5188,7 @@
       <c r="Z54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA54" s="2">
+      <c r="AA54">
         <v>1500</v>
       </c>
       <c r="AB54" s="2">
@@ -5214,7 +5211,7 @@
       <c r="B55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>1500</v>
       </c>
       <c r="D55" s="2">
@@ -5235,19 +5232,19 @@
       <c r="J55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K55" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L55" s="4">
+      <c r="K55" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L55" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M55" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N55" s="4">
+      <c r="M55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N55" s="2">
         <v>825</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="2">
         <v>2265</v>
       </c>
       <c r="Q55">
@@ -5256,7 +5253,7 @@
       <c r="R55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55">
         <v>1500</v>
       </c>
       <c r="T55" s="2">
@@ -5277,7 +5274,7 @@
       <c r="Z55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA55" s="2">
+      <c r="AA55">
         <v>1500</v>
       </c>
       <c r="AB55" s="2">
@@ -5300,7 +5297,7 @@
       <c r="B56">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>1500</v>
       </c>
       <c r="D56" s="2">
@@ -5321,19 +5318,19 @@
       <c r="J56">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K56" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L56" s="4">
+      <c r="K56" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L56" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M56" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N56" s="4">
+      <c r="M56" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N56" s="2">
         <v>765</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="2">
         <v>2265</v>
       </c>
       <c r="Q56">
@@ -5342,7 +5339,7 @@
       <c r="R56">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S56" s="2">
+      <c r="S56">
         <v>1500</v>
       </c>
       <c r="T56" s="2">
@@ -5363,7 +5360,7 @@
       <c r="Z56">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA56" s="2">
+      <c r="AA56">
         <v>1500</v>
       </c>
       <c r="AB56" s="2">
@@ -5386,7 +5383,7 @@
       <c r="B57">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
         <v>1500</v>
       </c>
       <c r="D57" s="2">
@@ -5407,19 +5404,19 @@
       <c r="J57">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K57" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L57" s="4">
+      <c r="K57" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M57" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N57" s="4">
+      <c r="M57" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N57" s="2">
         <v>757.5</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="2">
         <v>2265</v>
       </c>
       <c r="Q57">
@@ -5428,7 +5425,7 @@
       <c r="R57">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S57" s="2">
+      <c r="S57">
         <v>1500</v>
       </c>
       <c r="T57" s="2">
@@ -5449,7 +5446,7 @@
       <c r="Z57">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA57" s="2">
+      <c r="AA57">
         <v>1500</v>
       </c>
       <c r="AB57" s="2">
@@ -5472,7 +5469,7 @@
       <c r="B58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>1500</v>
       </c>
       <c r="D58" s="2">
@@ -5493,19 +5490,19 @@
       <c r="J58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K58" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L58" s="4">
+      <c r="K58" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M58" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N58" s="4">
+      <c r="M58" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N58" s="2">
         <v>751.5</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O58" s="2">
         <v>2265</v>
       </c>
       <c r="Q58">
@@ -5514,7 +5511,7 @@
       <c r="R58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S58" s="2">
+      <c r="S58">
         <v>1500</v>
       </c>
       <c r="T58" s="2">
@@ -5535,7 +5532,7 @@
       <c r="Z58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA58" s="2">
+      <c r="AA58">
         <v>1500</v>
       </c>
       <c r="AB58" s="2">
@@ -5558,7 +5555,7 @@
       <c r="B59">
         <v>1E-3</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>0</v>
       </c>
       <c r="D59" s="2">
@@ -5579,19 +5576,19 @@
       <c r="J59">
         <v>1E-3</v>
       </c>
-      <c r="K59" s="4">
-        <v>0</v>
-      </c>
-      <c r="L59" s="4">
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M59" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N59" s="4">
+      <c r="M59" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N59" s="2">
         <v>1125</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="2">
         <v>2253</v>
       </c>
       <c r="Q59">
@@ -5600,7 +5597,7 @@
       <c r="R59">
         <v>1E-3</v>
       </c>
-      <c r="S59" s="2">
+      <c r="S59">
         <v>0</v>
       </c>
       <c r="T59" s="2">
@@ -5621,7 +5618,7 @@
       <c r="Z59">
         <v>1E-3</v>
       </c>
-      <c r="AA59" s="2">
+      <c r="AA59">
         <v>0</v>
       </c>
       <c r="AB59" s="2">
@@ -5644,7 +5641,7 @@
       <c r="B60">
         <v>1E-3</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" s="2">
@@ -5665,19 +5662,19 @@
       <c r="J60">
         <v>1E-3</v>
       </c>
-      <c r="K60" s="4">
-        <v>0</v>
-      </c>
-      <c r="L60" s="4">
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M60" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N60" s="4">
+      <c r="M60" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N60" s="2">
         <v>1125</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="2">
         <v>2253</v>
       </c>
       <c r="Q60">
@@ -5686,7 +5683,7 @@
       <c r="R60">
         <v>1E-3</v>
       </c>
-      <c r="S60" s="2">
+      <c r="S60">
         <v>0</v>
       </c>
       <c r="T60" s="2">
@@ -5707,7 +5704,7 @@
       <c r="Z60">
         <v>1E-3</v>
       </c>
-      <c r="AA60" s="2">
+      <c r="AA60">
         <v>1500</v>
       </c>
       <c r="AB60" s="2">
@@ -5730,7 +5727,7 @@
       <c r="B61">
         <v>1E-3</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" s="2">
@@ -5751,19 +5748,19 @@
       <c r="J61">
         <v>1E-3</v>
       </c>
-      <c r="K61" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L61" s="4">
+      <c r="K61" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L61" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M61" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N61" s="4">
+      <c r="M61" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N61" s="2">
         <v>1050</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="2">
         <v>2253</v>
       </c>
       <c r="Q61">
@@ -5772,7 +5769,7 @@
       <c r="R61">
         <v>1E-3</v>
       </c>
-      <c r="S61" s="2">
+      <c r="S61">
         <v>1500</v>
       </c>
       <c r="T61" s="2">
@@ -5793,7 +5790,7 @@
       <c r="Z61">
         <v>1E-3</v>
       </c>
-      <c r="AA61" s="2">
+      <c r="AA61">
         <v>1500</v>
       </c>
       <c r="AB61" s="2">
@@ -5816,7 +5813,7 @@
       <c r="B62">
         <v>1E-3</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" s="2">
@@ -5837,19 +5834,19 @@
       <c r="J62">
         <v>1E-3</v>
       </c>
-      <c r="K62" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L62" s="4">
+      <c r="K62" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L62" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M62" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N62" s="4">
+      <c r="M62" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N62" s="2">
         <v>900</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O62" s="2">
         <v>2253</v>
       </c>
       <c r="Q62">
@@ -5858,7 +5855,7 @@
       <c r="R62">
         <v>1E-3</v>
       </c>
-      <c r="S62" s="2">
+      <c r="S62">
         <v>1500</v>
       </c>
       <c r="T62" s="2">
@@ -5879,7 +5876,7 @@
       <c r="Z62">
         <v>1E-3</v>
       </c>
-      <c r="AA62" s="2">
+      <c r="AA62">
         <v>1500</v>
       </c>
       <c r="AB62" s="2">
@@ -5902,7 +5899,7 @@
       <c r="B63">
         <v>1E-3</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>1500</v>
       </c>
       <c r="D63" s="2">
@@ -5923,19 +5920,19 @@
       <c r="J63">
         <v>1E-3</v>
       </c>
-      <c r="K63" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L63" s="4">
+      <c r="K63" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L63" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M63" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N63" s="4">
+      <c r="M63" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N63" s="2">
         <v>825</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O63" s="2">
         <v>2253</v>
       </c>
       <c r="Q63">
@@ -5944,7 +5941,7 @@
       <c r="R63">
         <v>1E-3</v>
       </c>
-      <c r="S63" s="2">
+      <c r="S63">
         <v>1500</v>
       </c>
       <c r="T63" s="2">
@@ -5965,7 +5962,7 @@
       <c r="Z63">
         <v>1E-3</v>
       </c>
-      <c r="AA63" s="2">
+      <c r="AA63">
         <v>1500</v>
       </c>
       <c r="AB63" s="2">
@@ -5988,7 +5985,7 @@
       <c r="B64">
         <v>1E-3</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>1500</v>
       </c>
       <c r="D64" s="2">
@@ -6009,19 +6006,19 @@
       <c r="J64">
         <v>1E-3</v>
       </c>
-      <c r="K64" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L64" s="4">
+      <c r="K64" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L64" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M64" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N64" s="4">
+      <c r="M64" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N64" s="2">
         <v>765</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O64" s="2">
         <v>2253</v>
       </c>
       <c r="Q64">
@@ -6030,7 +6027,7 @@
       <c r="R64">
         <v>1E-3</v>
       </c>
-      <c r="S64" s="2">
+      <c r="S64">
         <v>1500</v>
       </c>
       <c r="T64" s="2">
@@ -6051,7 +6048,7 @@
       <c r="Z64">
         <v>1E-3</v>
       </c>
-      <c r="AA64" s="2">
+      <c r="AA64">
         <v>1500</v>
       </c>
       <c r="AB64" s="2">
@@ -6074,7 +6071,7 @@
       <c r="B65">
         <v>1E-3</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>1500</v>
       </c>
       <c r="D65" s="2">
@@ -6095,19 +6092,19 @@
       <c r="J65">
         <v>1E-3</v>
       </c>
-      <c r="K65" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L65" s="4">
+      <c r="K65" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L65" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M65" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N65" s="4">
+      <c r="M65" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N65" s="2">
         <v>757.5</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O65" s="2">
         <v>2253</v>
       </c>
       <c r="Q65">
@@ -6116,7 +6113,7 @@
       <c r="R65">
         <v>1E-3</v>
       </c>
-      <c r="S65" s="2">
+      <c r="S65">
         <v>1500</v>
       </c>
       <c r="T65" s="2">
@@ -6137,7 +6134,7 @@
       <c r="Z65">
         <v>1E-3</v>
       </c>
-      <c r="AA65" s="2">
+      <c r="AA65">
         <v>1500</v>
       </c>
       <c r="AB65" s="2">
@@ -6160,7 +6157,7 @@
       <c r="B66">
         <v>1E-3</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>1500</v>
       </c>
       <c r="D66" s="2">
@@ -6181,19 +6178,19 @@
       <c r="J66">
         <v>1E-3</v>
       </c>
-      <c r="K66" s="4">
-        <v>1500</v>
-      </c>
-      <c r="L66" s="4">
+      <c r="K66" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L66" s="2">
         <v>2798.9434191539499</v>
       </c>
-      <c r="M66" s="4">
-        <v>4000</v>
-      </c>
-      <c r="N66" s="4">
+      <c r="M66" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N66" s="2">
         <v>751.5</v>
       </c>
-      <c r="O66" s="4">
+      <c r="O66" s="2">
         <v>2253</v>
       </c>
       <c r="Q66">
@@ -6202,7 +6199,7 @@
       <c r="R66">
         <v>1E-3</v>
       </c>
-      <c r="S66" s="2">
+      <c r="S66">
         <v>1500</v>
       </c>
       <c r="T66" s="2">
@@ -6223,7 +6220,7 @@
       <c r="Z66">
         <v>1E-3</v>
       </c>
-      <c r="AA66" s="2">
+      <c r="AA66">
         <v>1500</v>
       </c>
       <c r="AB66" s="2">
@@ -6254,8 +6251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAAF831-0D83-478A-B34D-1DECE7B9A80D}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AE66"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z11:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6264,42 +6261,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="Y1" s="5" t="s">
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -6457,7 +6454,7 @@
       <c r="Z3">
         <v>1</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" s="2">
@@ -6543,7 +6540,7 @@
       <c r="Z4">
         <v>1</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4">
         <v>1500</v>
       </c>
       <c r="AB4" s="2">
@@ -6629,7 +6626,7 @@
       <c r="Z5">
         <v>1</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5">
         <v>1500</v>
       </c>
       <c r="AB5" s="2">
@@ -6715,7 +6712,7 @@
       <c r="Z6">
         <v>1</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6">
         <v>1500</v>
       </c>
       <c r="AB6" s="2">
@@ -6801,7 +6798,7 @@
       <c r="Z7">
         <v>1</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7">
         <v>1500</v>
       </c>
       <c r="AB7" s="2">
@@ -6887,7 +6884,7 @@
       <c r="Z8">
         <v>1</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8">
         <v>1500</v>
       </c>
       <c r="AB8" s="2">
@@ -6973,7 +6970,7 @@
       <c r="Z9">
         <v>1</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA9">
         <v>1500</v>
       </c>
       <c r="AB9" s="2">
@@ -7059,7 +7056,7 @@
       <c r="Z10">
         <v>1</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10">
         <v>1500</v>
       </c>
       <c r="AB10" s="2">
@@ -7145,7 +7142,7 @@
       <c r="Z11">
         <v>0.5</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" s="2">
@@ -7231,7 +7228,7 @@
       <c r="Z12">
         <v>0.5</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12">
         <v>1500</v>
       </c>
       <c r="AB12" s="2">
@@ -7317,7 +7314,7 @@
       <c r="Z13">
         <v>0.5</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13">
         <v>1500</v>
       </c>
       <c r="AB13" s="2">
@@ -7403,7 +7400,7 @@
       <c r="Z14">
         <v>0.5</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14">
         <v>1500</v>
       </c>
       <c r="AB14" s="2">
@@ -7489,7 +7486,7 @@
       <c r="Z15">
         <v>0.5</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15">
         <v>1500</v>
       </c>
       <c r="AB15" s="2">
@@ -7575,7 +7572,7 @@
       <c r="Z16">
         <v>0.5</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AA16">
         <v>1500</v>
       </c>
       <c r="AB16" s="2">
@@ -7661,7 +7658,7 @@
       <c r="Z17">
         <v>0.5</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17">
         <v>1500</v>
       </c>
       <c r="AB17" s="2">
@@ -7747,7 +7744,7 @@
       <c r="Z18">
         <v>0.5</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA18">
         <v>1500</v>
       </c>
       <c r="AB18" s="2">
@@ -7833,7 +7830,7 @@
       <c r="Z19">
         <v>0.2</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19" s="2">
@@ -7919,7 +7916,7 @@
       <c r="Z20">
         <v>0.2</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20">
         <v>1500</v>
       </c>
       <c r="AB20" s="2">
@@ -8005,7 +8002,7 @@
       <c r="Z21">
         <v>0.2</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AA21">
         <v>1500</v>
       </c>
       <c r="AB21" s="2">
@@ -8091,7 +8088,7 @@
       <c r="Z22">
         <v>0.2</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA22">
         <v>1500</v>
       </c>
       <c r="AB22" s="2">
@@ -8177,7 +8174,7 @@
       <c r="Z23">
         <v>0.2</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AA23">
         <v>1500</v>
       </c>
       <c r="AB23" s="2">
@@ -8263,7 +8260,7 @@
       <c r="Z24">
         <v>0.2</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AA24">
         <v>1500</v>
       </c>
       <c r="AB24" s="2">
@@ -8349,7 +8346,7 @@
       <c r="Z25">
         <v>0.2</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA25">
         <v>1500</v>
       </c>
       <c r="AB25" s="2">
@@ -8435,7 +8432,7 @@
       <c r="Z26">
         <v>0.2</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA26">
         <v>1500</v>
       </c>
       <c r="AB26" s="2">
@@ -8521,7 +8518,7 @@
       <c r="Z27">
         <v>0.1</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27" s="2">
@@ -8607,7 +8604,7 @@
       <c r="Z28">
         <v>0.1</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA28">
         <v>1500</v>
       </c>
       <c r="AB28" s="2">
@@ -8693,7 +8690,7 @@
       <c r="Z29">
         <v>0.1</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AA29">
         <v>1500</v>
       </c>
       <c r="AB29" s="2">
@@ -8779,7 +8776,7 @@
       <c r="Z30">
         <v>0.1</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AA30">
         <v>1500</v>
       </c>
       <c r="AB30" s="2">
@@ -8865,7 +8862,7 @@
       <c r="Z31">
         <v>0.1</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AA31">
         <v>1500</v>
       </c>
       <c r="AB31" s="2">
@@ -8951,7 +8948,7 @@
       <c r="Z32">
         <v>0.1</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AA32">
         <v>1500</v>
       </c>
       <c r="AB32" s="2">
@@ -9037,7 +9034,7 @@
       <c r="Z33">
         <v>0.1</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AA33">
         <v>1500</v>
       </c>
       <c r="AB33" s="2">
@@ -9123,7 +9120,7 @@
       <c r="Z34">
         <v>0.1</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA34">
         <v>1500</v>
       </c>
       <c r="AB34" s="2">
@@ -9209,7 +9206,7 @@
       <c r="Z35">
         <v>0.05</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AA35">
         <v>0</v>
       </c>
       <c r="AB35" s="2">
@@ -9295,7 +9292,7 @@
       <c r="Z36">
         <v>0.05</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AA36">
         <v>1500</v>
       </c>
       <c r="AB36" s="2">
@@ -9381,7 +9378,7 @@
       <c r="Z37">
         <v>0.05</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AA37">
         <v>1500</v>
       </c>
       <c r="AB37" s="2">
@@ -9467,7 +9464,7 @@
       <c r="Z38">
         <v>0.05</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AA38">
         <v>1500</v>
       </c>
       <c r="AB38" s="2">
@@ -9553,7 +9550,7 @@
       <c r="Z39">
         <v>0.05</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AA39">
         <v>1500</v>
       </c>
       <c r="AB39" s="2">
@@ -9639,7 +9636,7 @@
       <c r="Z40">
         <v>0.05</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AA40">
         <v>1500</v>
       </c>
       <c r="AB40" s="2">
@@ -9725,7 +9722,7 @@
       <c r="Z41">
         <v>0.05</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AA41">
         <v>1500</v>
       </c>
       <c r="AB41" s="2">
@@ -9811,7 +9808,7 @@
       <c r="Z42">
         <v>0.05</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AA42">
         <v>1500</v>
       </c>
       <c r="AB42" s="2">
@@ -9897,7 +9894,7 @@
       <c r="Z43">
         <v>0.01</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AA43">
         <v>0</v>
       </c>
       <c r="AB43" s="2">
@@ -9983,7 +9980,7 @@
       <c r="Z44">
         <v>0.01</v>
       </c>
-      <c r="AA44" s="2">
+      <c r="AA44">
         <v>1500</v>
       </c>
       <c r="AB44" s="2">
@@ -10069,7 +10066,7 @@
       <c r="Z45">
         <v>0.01</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AA45">
         <v>1500</v>
       </c>
       <c r="AB45" s="2">
@@ -10155,7 +10152,7 @@
       <c r="Z46">
         <v>0.01</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AA46">
         <v>1500</v>
       </c>
       <c r="AB46" s="2">
@@ -10241,7 +10238,7 @@
       <c r="Z47">
         <v>0.01</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AA47">
         <v>1500</v>
       </c>
       <c r="AB47" s="2">
@@ -10327,7 +10324,7 @@
       <c r="Z48">
         <v>0.01</v>
       </c>
-      <c r="AA48" s="2">
+      <c r="AA48">
         <v>1500</v>
       </c>
       <c r="AB48" s="2">
@@ -10413,7 +10410,7 @@
       <c r="Z49">
         <v>0.01</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AA49">
         <v>1500</v>
       </c>
       <c r="AB49" s="2">
@@ -10499,7 +10496,7 @@
       <c r="Z50">
         <v>0.01</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AA50">
         <v>1500</v>
       </c>
       <c r="AB50" s="2">
@@ -10585,7 +10582,7 @@
       <c r="Z51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA51" s="2">
+      <c r="AA51">
         <v>0</v>
       </c>
       <c r="AB51" s="2">
@@ -10671,7 +10668,7 @@
       <c r="Z52">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA52" s="2">
+      <c r="AA52">
         <v>1500</v>
       </c>
       <c r="AB52" s="2">
@@ -10757,7 +10754,7 @@
       <c r="Z53">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="AA53">
         <v>1500</v>
       </c>
       <c r="AB53" s="2">
@@ -10843,7 +10840,7 @@
       <c r="Z54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA54" s="2">
+      <c r="AA54">
         <v>1500</v>
       </c>
       <c r="AB54" s="2">
@@ -10929,7 +10926,7 @@
       <c r="Z55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA55" s="2">
+      <c r="AA55">
         <v>1500</v>
       </c>
       <c r="AB55" s="2">
@@ -11015,7 +11012,7 @@
       <c r="Z56">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA56" s="2">
+      <c r="AA56">
         <v>1500</v>
       </c>
       <c r="AB56" s="2">
@@ -11101,7 +11098,7 @@
       <c r="Z57">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA57" s="2">
+      <c r="AA57">
         <v>1500</v>
       </c>
       <c r="AB57" s="2">
@@ -11187,7 +11184,7 @@
       <c r="Z58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA58" s="2">
+      <c r="AA58">
         <v>1500</v>
       </c>
       <c r="AB58" s="2">
@@ -11273,7 +11270,7 @@
       <c r="Z59">
         <v>1E-3</v>
       </c>
-      <c r="AA59" s="2">
+      <c r="AA59">
         <v>0</v>
       </c>
       <c r="AB59" s="2">
@@ -11359,7 +11356,7 @@
       <c r="Z60">
         <v>1E-3</v>
       </c>
-      <c r="AA60" s="2">
+      <c r="AA60">
         <v>1500</v>
       </c>
       <c r="AB60" s="2">
@@ -11445,7 +11442,7 @@
       <c r="Z61">
         <v>1E-3</v>
       </c>
-      <c r="AA61" s="2">
+      <c r="AA61">
         <v>1500</v>
       </c>
       <c r="AB61" s="2">
@@ -11531,7 +11528,7 @@
       <c r="Z62">
         <v>1E-3</v>
       </c>
-      <c r="AA62" s="2">
+      <c r="AA62">
         <v>1500</v>
       </c>
       <c r="AB62" s="2">
@@ -11617,7 +11614,7 @@
       <c r="Z63">
         <v>1E-3</v>
       </c>
-      <c r="AA63" s="2">
+      <c r="AA63">
         <v>1500</v>
       </c>
       <c r="AB63" s="2">
@@ -11703,7 +11700,7 @@
       <c r="Z64">
         <v>1E-3</v>
       </c>
-      <c r="AA64" s="2">
+      <c r="AA64">
         <v>1500</v>
       </c>
       <c r="AB64" s="2">
@@ -11789,7 +11786,7 @@
       <c r="Z65">
         <v>1E-3</v>
       </c>
-      <c r="AA65" s="2">
+      <c r="AA65">
         <v>1500</v>
       </c>
       <c r="AB65" s="2">
@@ -11875,7 +11872,7 @@
       <c r="Z66">
         <v>1E-3</v>
       </c>
-      <c r="AA66" s="2">
+      <c r="AA66">
         <v>1500</v>
       </c>
       <c r="AB66" s="2">
